--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C63D6-906D-4EE3-B433-14BEADBAD3F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C0ADD6-0E29-4855-BA19-C11E4FAC6CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="214">
   <si>
     <t>TSID</t>
   </si>
@@ -613,16 +613,189 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail:clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1</t>
-  </si>
-  <si>
-    <t>Fail:RESULT SETS ARE NOT REFRESHED AFTER THE PUBLICATION YEAR TEXT FILTER, BEFORE FILTER : 	0		 AFTER PY FILTER :	414273RESULT SETS ARE NOT REFRESHED : 	0		 AFTER PY FILTER :	414273</t>
+    <t>one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven</t>
+  </si>
+  <si>
+    <t>Validate Patent tab more like this option</t>
+  </si>
+  <si>
+    <t>validatePatentMoreLikeThis</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>Validate Literature tab more like this option</t>
+  </si>
+  <si>
+    <t>validateLiteratureMoreLikeThis</t>
+  </si>
+  <si>
+    <t>MoreFiltersDropdown feature for filter</t>
+  </si>
+  <si>
+    <t>validateMoreFiltersDropdownForFilters</t>
+  </si>
+  <si>
+    <t>Assignee
+Dead/Alive
+Inventor
+Priority country/region
+Priority year
+Publication country/region
+Publication Date
+Publication year
+Additives for Polymers
+Catalysts (Polymer Sci.)
+Chemical Features (Polymer Sci.)
+Chemical Processes (Polymer Sci.)
+Modified Polymers
+Physical Operations (Polymers)
+Polymer Applications
+Polymer Descriptors
+Polymer Fabrication Equipment
+Polymer Patent Type
+Polymer Properties
+Polymer Shape &amp; Form
+Polymer Type
+Substances (Polymer Sci.)
+Universal Terms (Polymer Sci.)</t>
+  </si>
+  <si>
+    <t>DwpiTableFeature</t>
+  </si>
+  <si>
+    <t>validatePatentDWPITable</t>
+  </si>
+  <si>
+    <t>Patent citations</t>
+  </si>
+  <si>
+    <t>validatePatentCitations</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1016</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1017</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1018</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1019</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1020</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Fail:Actual list is not matched with expectedaddAllDropdownFields is not workingjava.lang.IndexOutOfBoundsException: Index: 0, Size: 0addAllDropdownFields is not workingjava.lang.IndexOutOfBoundsException: Index: 0, Size: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail:Novelty Field is not displayed for given row in Patent results page. Use Field is not displayed for given row in Patent results page. </t>
+  </si>
+  <si>
+    <t>Fail:ClearAll button is in disable modeclickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
+  (Session info: headless chrome=90.0.4430.93)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54830}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7f07da5c49f9f7798e65984c131c2798
+*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}clickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
+  (Session info: headless chrome=90.0.4430.93)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54830}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7f07da5c49f9f7798e65984c131c2798
+*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}</t>
+  </si>
+  <si>
+    <t>Fail:Switch TO Given window is not workingorg.openqa.selenium.TimeoutException: timeout: Timed out receiving message from renderer: 300.000
+  (Session info: headless chrome=90.0.4430.93)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55253}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a95e858cc91fd58dcb755e516b0ad48b</t>
+  </si>
+  <si>
+    <t>Fail:default value for items per page dropdown is other than 20item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55429}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 65c189369502131703e6673c18132a6fitem has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55429}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 65c189369502131703e6673c18132a6f</t>
+  </si>
+  <si>
+    <t>Fail:No Results Page error msg has not displayedjava.lang.Exception: getText is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//mat-icon[contains(text(),'biotech')]/following-sibling::h1"}
+  (Session info: headless chrome=90.0.4430.93)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55650}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 36f9ffc4aee73ca953d9b21c59740ebf
+*** Element info: {Using=xpath, value=//mat-icon[contains(text(),'biotech')]/following-sibling::h1}No Results Page error msg has not displayedjava.lang.Exception: getText is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//mat-icon[contains(text(),'biotech')]/following-sibling::h1"}
+  (Session info: headless chrome=90.0.4430.93)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55650}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 36f9ffc4aee73ca953d9b21c59740ebf
+*** Element info: {Using=xpath, value=//mat-icon[contains(text(),'biotech')]/following-sibling::h1}</t>
+  </si>
+  <si>
+    <t>Fail:deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="70.35440865892292" x="126.58959537572255" y="49.645591341077086" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1055, 377). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
+  (Session info: headless chrome=90.0.4430.93)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9a528b252718c0cd954ec1ef82919083deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="70.35440865892292" x="126.58959537572255" y="49.645591341077086" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1055, 377). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
+  (Session info: headless chrome=90.0.4430.93)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9a528b252718c0cd954ec1ef82919083</t>
+  </si>
+  <si>
+    <t>Fail:MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	Bai, WJFOR THE RECORD NUMBER:		 5MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	LIU, LTFOR THE RECORD NUMBER:		 6MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	ZHU, LFFOR THE RECORD NUMBER:		 9</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven</t>
+    <t>Fail:default value for items per page dropdown is other than 20item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57459}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ff4091baf265e845123d011b466738c1item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57459}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ff4091baf265e845123d011b466738c1</t>
+  </si>
+  <si>
+    <t>Rerun</t>
   </si>
 </sst>
 </file>
@@ -630,9 +803,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +875,20 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -747,15 +934,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,12 +976,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{AA68FCC1-0F32-4B18-9A9A-444BEC9A472A}"/>
     <cellStyle name="Comma 2 2 2" xfId="5" xr:uid="{1A7BAE10-D655-46A3-884E-7A3BE33A8E6A}"/>
     <cellStyle name="Comma 2 3" xfId="4" xr:uid="{02E4C50F-082B-4B45-BB33-E0B251D59FE1}"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
@@ -1138,14 +1333,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1175,30 +1370,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.88671875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="215.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="70.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="65.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="9.765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="255.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="70.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="13" max="16384" style="4" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1430,11 @@
       <c r="L1" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -1250,9 +1448,9 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
         <v>182</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1265,7 +1463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -1279,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>182</v>
@@ -1294,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -1308,9 +1506,9 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" t="s">
         <v>182</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1323,7 +1521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>88</v>
       </c>
@@ -1337,10 +1535,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>182</v>
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>171</v>
@@ -1352,7 +1550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -1366,9 +1564,9 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" t="s">
         <v>182</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1381,7 +1579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -1395,9 +1593,9 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" t="s">
         <v>182</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1413,7 +1611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -1427,7 +1625,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>182</v>
@@ -1442,10 +1640,10 @@
         <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
@@ -1459,9 +1657,9 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1477,7 +1675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>94</v>
       </c>
@@ -1491,9 +1689,9 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1506,7 +1704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
@@ -1520,9 +1718,9 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" t="s">
         <v>182</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1538,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
@@ -1552,9 +1750,9 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1570,7 +1768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -1584,9 +1782,9 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" t="s">
         <v>182</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1602,7 +1800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
@@ -1616,9 +1814,9 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
         <v>182</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1634,7 +1832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -1648,9 +1846,9 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" t="s">
         <v>182</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1666,7 +1864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1680,9 +1878,9 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" t="s">
         <v>182</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1696,7 +1894,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>102</v>
       </c>
@@ -1710,9 +1908,11 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>211</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="G17" s="12" t="s">
         <v>84</v>
       </c>
@@ -1725,7 +1925,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>103</v>
       </c>
@@ -1739,7 +1939,7 @@
         <v>68</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>182</v>
@@ -1755,7 +1955,7 @@
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>104</v>
       </c>
@@ -1769,7 +1969,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>182</v>
@@ -1786,7 +1986,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>105</v>
       </c>
@@ -1800,7 +2000,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>182</v>
@@ -1817,7 +2017,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>106</v>
       </c>
@@ -1831,7 +2031,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>182</v>
@@ -1853,7 +2053,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>109</v>
       </c>
@@ -1867,10 +2067,10 @@
         <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>84</v>
@@ -1884,7 +2084,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>111</v>
       </c>
@@ -1898,10 +2098,10 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>84</v>
@@ -1915,7 +2115,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>112</v>
       </c>
@@ -1929,7 +2129,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>182</v>
@@ -1943,7 +2143,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>113</v>
       </c>
@@ -1957,7 +2157,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>182</v>
@@ -1974,7 +2174,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>114</v>
       </c>
@@ -1988,7 +2188,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>182</v>
@@ -2005,7 +2205,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>115</v>
       </c>
@@ -2019,10 +2219,10 @@
         <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>84</v>
@@ -2038,7 +2238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>117</v>
       </c>
@@ -2052,10 +2252,10 @@
         <v>116</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>84</v>
@@ -2067,7 +2267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>120</v>
       </c>
@@ -2081,7 +2281,7 @@
         <v>122</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>182</v>
@@ -2096,7 +2296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>123</v>
       </c>
@@ -2110,7 +2310,7 @@
         <v>125</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>182</v>
@@ -2125,7 +2325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>126</v>
       </c>
@@ -2139,7 +2339,7 @@
         <v>128</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>182</v>
@@ -2154,7 +2354,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>129</v>
       </c>
@@ -2168,7 +2368,7 @@
         <v>130</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>182</v>
@@ -2183,7 +2383,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>131</v>
       </c>
@@ -2197,7 +2397,7 @@
         <v>133</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>182</v>
@@ -2212,7 +2412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>134</v>
       </c>
@@ -2226,7 +2426,7 @@
         <v>136</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>182</v>
@@ -2241,7 +2441,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>137</v>
       </c>
@@ -2255,7 +2455,7 @@
         <v>138</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>182</v>
@@ -2270,7 +2470,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>139</v>
       </c>
@@ -2284,7 +2484,7 @@
         <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>182</v>
@@ -2300,7 +2500,7 @@
       </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>141</v>
       </c>
@@ -2314,7 +2514,7 @@
         <v>143</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>182</v>
@@ -2330,7 +2530,7 @@
       </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>144</v>
       </c>
@@ -2344,7 +2544,7 @@
         <v>146</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>182</v>
@@ -2360,7 +2560,7 @@
       </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
@@ -2374,7 +2574,7 @@
         <v>149</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>182</v>
@@ -2390,7 +2590,7 @@
       </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>150</v>
       </c>
@@ -2404,7 +2604,7 @@
         <v>152</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>182</v>
@@ -2420,7 +2620,7 @@
       </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>153</v>
       </c>
@@ -2434,7 +2634,7 @@
         <v>155</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>182</v>
@@ -2449,7 +2649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
@@ -2463,7 +2663,7 @@
         <v>158</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>182</v>
@@ -2478,7 +2678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>173</v>
       </c>
@@ -2492,9 +2692,9 @@
         <v>160</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
         <v>182</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -2507,7 +2707,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>174</v>
       </c>
@@ -2521,9 +2721,9 @@
         <v>163</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
         <v>182</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -2536,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>175</v>
       </c>
@@ -2550,10 +2750,10 @@
         <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>182</v>
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>171</v>
@@ -2565,7 +2765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>176</v>
       </c>
@@ -2579,9 +2779,9 @@
         <v>166</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
         <v>182</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -2594,7 +2794,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>177</v>
       </c>
@@ -2608,9 +2808,9 @@
         <v>168</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
         <v>182</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -2623,7 +2823,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>178</v>
       </c>
@@ -2637,9 +2837,9 @@
         <v>170</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
         <v>182</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -2652,11 +2852,162 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="M51" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M53" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G51" r:id="rId1" xr:uid="{D348158F-DAF6-4E2A-8A49-157891A029C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C0ADD6-0E29-4855-BA19-C11E4FAC6CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B187-DCBA-49A8-BB4B-E8542E41CC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="223">
   <si>
     <t>TSID</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Filters-Clear all Filters</t>
   </si>
   <si>
-    <t>ES405616A0</t>
-  </si>
-  <si>
     <t>validateFiltersClickingOnXFromPillBox</t>
   </si>
   <si>
@@ -316,12 +313,6 @@
     <t>CHEMEXP-739</t>
   </si>
   <si>
-    <t>rashmi.rl@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>CHEMEXP-752</t>
   </si>
   <si>
@@ -331,9 +322,6 @@
     <t>CHEMEXP-740</t>
   </si>
   <si>
-    <t xml:space="preserve">antibacterial polyethylene </t>
-  </si>
-  <si>
     <t>CHEMEXP-741</t>
   </si>
   <si>
@@ -575,12 +563,6 @@
   </si>
   <si>
     <t>validateManageFieldsDrawingSizeOptions</t>
-  </si>
-  <si>
-    <t>anand.perumallukamichetty@clarivate.com</t>
-  </si>
-  <si>
-    <t>Derwent@1234</t>
   </si>
   <si>
     <t>CHEMEXP-946</t>
@@ -695,107 +677,102 @@
     <t>Fields</t>
   </si>
   <si>
-    <t>Fail:Actual list is not matched with expectedaddAllDropdownFields is not workingjava.lang.IndexOutOfBoundsException: Index: 0, Size: 0addAllDropdownFields is not workingjava.lang.IndexOutOfBoundsException: Index: 0, Size: 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail:Novelty Field is not displayed for given row in Patent results page. Use Field is not displayed for given row in Patent results page. </t>
-  </si>
-  <si>
-    <t>Fail:ClearAll button is in disable modeclickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
-  (Session info: headless chrome=90.0.4430.93)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+    <t>Saved Records</t>
+  </si>
+  <si>
+    <t>validateSavedRecordsFeature</t>
+  </si>
+  <si>
+    <t>rashmi.rl@thomsonreuters.com</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>CheckboxSelection</t>
+  </si>
+  <si>
+    <t>validateCheckboxSelection</t>
+  </si>
+  <si>
+    <t>validate - view as results set for Patent - Citing Patents and Patent - Cited Patents</t>
+  </si>
+  <si>
+    <t>validatePatentViewAsResultsSet</t>
+  </si>
+  <si>
+    <t>anand.perumallukamichetty@clarivate.com</t>
+  </si>
+  <si>
+    <t>Derwent@1234</t>
+  </si>
+  <si>
+    <t>created new folder from RS and Footer</t>
+  </si>
+  <si>
+    <t>validateCreateFolder</t>
+  </si>
+  <si>
+    <t>Validate saved folder pagination and global check box in RS page and saved folders</t>
+  </si>
+  <si>
+    <t>validateGlobalCheckBoxAndPagination</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1067</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1068</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyethylene </t>
+  </si>
+  <si>
+    <t>resin</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1086</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1087</t>
+  </si>
+  <si>
+    <t>Patent-PDF available</t>
+  </si>
+  <si>
+    <t>ES198601278A</t>
+  </si>
+  <si>
+    <t>Fail: java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@125855a3 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54830}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7f07da5c49f9f7798e65984c131c2798
-*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}clickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
-  (Session info: headless chrome=90.0.4430.93)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7c5aecfb86feda4f648a56f8f452bf6a java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@125855a3 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54830}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7f07da5c49f9f7798e65984c131c2798
-*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}</t>
-  </si>
-  <si>
-    <t>Fail:Switch TO Given window is not workingorg.openqa.selenium.TimeoutException: timeout: Timed out receiving message from renderer: 300.000
-  (Session info: headless chrome=90.0.4430.93)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7c5aecfb86feda4f648a56f8f452bf6a</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fail:getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55253}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a95e858cc91fd58dcb755e516b0ad48b</t>
-  </si>
-  <si>
-    <t>Fail:default value for items per page dropdown is other than 20item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 00d4d616dde44e10f0dc66aae735c442getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55429}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 65c189369502131703e6673c18132a6fitem has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (65c189369502131703e6673c18132a6f)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55429}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 65c189369502131703e6673c18132a6f</t>
-  </si>
-  <si>
-    <t>Fail:No Results Page error msg has not displayedjava.lang.Exception: getText is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//mat-icon[contains(text(),'biotech')]/following-sibling::h1"}
-  (Session info: headless chrome=90.0.4430.93)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55650}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 36f9ffc4aee73ca953d9b21c59740ebf
-*** Element info: {Using=xpath, value=//mat-icon[contains(text(),'biotech')]/following-sibling::h1}No Results Page error msg has not displayedjava.lang.Exception: getText is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//mat-icon[contains(text(),'biotech')]/following-sibling::h1"}
-  (Session info: headless chrome=90.0.4430.93)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55650}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 36f9ffc4aee73ca953d9b21c59740ebf
-*** Element info: {Using=xpath, value=//mat-icon[contains(text(),'biotech')]/following-sibling::h1}</t>
-  </si>
-  <si>
-    <t>Fail:deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="70.35440865892292" x="126.58959537572255" y="49.645591341077086" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1055, 377). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
-  (Session info: headless chrome=90.0.4430.93)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9a528b252718c0cd954ec1ef82919083deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="70.35440865892292" x="126.58959537572255" y="49.645591341077086" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1055, 377). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
-  (Session info: headless chrome=90.0.4430.93)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9a528b252718c0cd954ec1ef82919083</t>
-  </si>
-  <si>
-    <t>Fail:MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	Bai, WJFOR THE RECORD NUMBER:		 5MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	LIU, LTFOR THE RECORD NUMBER:		 6MORE LIKE AUTHOR IN THE KEYWORD : 	Long, HB		 IS NOT MATCHING WITH RS AUTHOR :	ZHU, LFFOR THE RECORD NUMBER:		 9</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fail:default value for items per page dropdown is other than 20item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57459}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ff4091baf265e845123d011b466738c1item has not selectedjava.lang.Exception: clickOn dropdown is not workingjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ff4091baf265e845123d011b466738c1)] -&gt; xpath: //mat-select[contains(@aria-label,'Items per page:')]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.213', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.93, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57459}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ff4091baf265e845123d011b466738c1</t>
-  </si>
-  <si>
-    <t>Rerun</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 00d4d616dde44e10f0dc66aae735c442</t>
   </si>
 </sst>
 </file>
@@ -805,7 +782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,12 +835,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -876,6 +847,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -884,13 +861,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +890,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +933,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,9 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,7 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -972,15 +958,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1327,7 +1329,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1362,7 +1364,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1370,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,49 +1395,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -1448,16 +1449,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
@@ -1465,7 +1466,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -1477,16 +1478,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
@@ -1494,7 +1495,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -1506,16 +1507,16 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
@@ -1523,7 +1524,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1535,24 +1536,24 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>89</v>
+        <v>206</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>27</v>
@@ -1564,16 +1565,16 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1581,7 +1582,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -1593,16 +1594,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
@@ -1625,27 +1626,27 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -1657,18 +1658,18 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1676,8 +1677,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>94</v>
+      <c r="A10" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -1689,24 +1690,24 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>42</v>
@@ -1718,16 +1719,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
@@ -1738,7 +1739,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -1750,27 +1751,27 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>46</v>
@@ -1782,27 +1783,27 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -1814,27 +1815,27 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>51</v>
@@ -1846,16 +1847,16 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>35</v>
@@ -1866,7 +1867,7 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>54</v>
@@ -1878,859 +1879,859 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="E19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="C37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="E37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="14" t="s">
+      <c r="E38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="14" t="s">
+      <c r="E39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="15"/>
+        <v>221</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>119</v>
+        <v>221</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>119</v>
+        <v>221</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>20</v>
@@ -2738,28 +2739,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>20</v>
@@ -2767,247 +2768,446 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:13" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="M51" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="C54" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="25"/>
+    </row>
+    <row r="55" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="25"/>
+    </row>
+    <row r="56" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="B56" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J56" s="25"/>
+    </row>
+    <row r="57" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="25"/>
+    </row>
+    <row r="58" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="14" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="14" t="s">
+      <c r="E58" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="15"/>
-      <c r="M51" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="J58" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M53" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G51" r:id="rId1" xr:uid="{D348158F-DAF6-4E2A-8A49-157891A029C0}"/>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{723970F4-4603-469C-B45C-96036D0B804A}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{2AD4D63B-2996-4EF0-8A2F-8AF5B6BD9CC8}"/>
+    <hyperlink ref="G18:G33" r:id="rId3" display="rashmi.rl@thomsonreuters.com" xr:uid="{3DB5E2C0-A750-4358-9BF6-32D3D98D2096}"/>
+    <hyperlink ref="H18:H33" r:id="rId4" display="Admin@123" xr:uid="{BA92D6DD-AADB-4069-AFCB-839A6F14E232}"/>
+    <hyperlink ref="G33" r:id="rId5" xr:uid="{17A7C8C6-2597-4D73-A91A-12BAC045FE55}"/>
+    <hyperlink ref="G34" r:id="rId6" xr:uid="{5B70CB00-7AFC-441C-8B21-F20FFAC5C9AF}"/>
+    <hyperlink ref="G35" r:id="rId7" xr:uid="{52261ED4-7225-4B8F-970A-9E1807022FE1}"/>
+    <hyperlink ref="G36" r:id="rId8" xr:uid="{501C3C63-1543-43E6-8460-64278CEC18A9}"/>
+    <hyperlink ref="G37" r:id="rId9" xr:uid="{CDA235E6-241E-4DCC-ACAE-541EAE638029}"/>
+    <hyperlink ref="G38" r:id="rId10" xr:uid="{2CC833FE-2CFA-4F55-A03C-0F6D36B8FF1A}"/>
+    <hyperlink ref="G39" r:id="rId11" xr:uid="{7CB5209A-D384-479E-ABBE-818E4A32E00E}"/>
+    <hyperlink ref="H34" r:id="rId12" xr:uid="{844571CA-3BAD-467A-A34B-3A358EC13C1E}"/>
+    <hyperlink ref="H35" r:id="rId13" xr:uid="{68973837-B14A-4E03-86E4-985D4BC30277}"/>
+    <hyperlink ref="H36" r:id="rId14" xr:uid="{E5973375-6697-471D-BBCC-1169C0B3ED3D}"/>
+    <hyperlink ref="H37" r:id="rId15" xr:uid="{A778FDBC-52CD-41F2-ACD2-4FE7CE425AAD}"/>
+    <hyperlink ref="H38" r:id="rId16" xr:uid="{50A1E3B2-8159-4D87-A1FE-2D2F37C0272D}"/>
+    <hyperlink ref="H39" r:id="rId17" xr:uid="{B873B963-4DD0-4904-B0A5-116E0B3CD77A}"/>
+    <hyperlink ref="G40" r:id="rId18" xr:uid="{8398B387-7BC7-498B-9AA4-042A87D3A4DB}"/>
+    <hyperlink ref="H40" r:id="rId19" xr:uid="{048C8336-07F0-4FDE-8DB7-0B965C168F26}"/>
+    <hyperlink ref="G41" r:id="rId20" xr:uid="{F030BE8B-BC36-49E1-8D71-1478C5C4BCDF}"/>
+    <hyperlink ref="H41" r:id="rId21" xr:uid="{8B0D0D08-8A2C-4C34-BC5D-820B82A6579F}"/>
+    <hyperlink ref="G42" r:id="rId22" xr:uid="{23135E44-8E96-4D83-A082-A7511C1C0771}"/>
+    <hyperlink ref="H42" r:id="rId23" xr:uid="{335C4A8A-91EB-43FA-927A-A03E96ADF2D2}"/>
+    <hyperlink ref="G43" r:id="rId24" xr:uid="{0CCCEC04-DDD0-4D0F-8D23-C47F6F6CEC53}"/>
+    <hyperlink ref="H43" r:id="rId25" xr:uid="{D41C1E47-89D1-498E-802F-F4AA544A235B}"/>
+    <hyperlink ref="G44" r:id="rId26" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
+    <hyperlink ref="G45" r:id="rId27" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
+    <hyperlink ref="G46" r:id="rId28" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
+    <hyperlink ref="G47" r:id="rId29" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
+    <hyperlink ref="G48" r:id="rId30" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
+    <hyperlink ref="G49" r:id="rId31" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
+    <hyperlink ref="G50" r:id="rId32" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
+    <hyperlink ref="H44" r:id="rId33" xr:uid="{57BA88B1-4374-4605-B1CF-000FB7A9AD17}"/>
+    <hyperlink ref="H45" r:id="rId34" xr:uid="{1020C407-DE4D-45CD-B802-7B6DA3235B83}"/>
+    <hyperlink ref="H46" r:id="rId35" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
+    <hyperlink ref="H47" r:id="rId36" xr:uid="{A2EA3677-590B-439E-B26B-BBB5D057F411}"/>
+    <hyperlink ref="H48" r:id="rId37" xr:uid="{E55440CE-A9F7-403D-B428-B5518F503072}"/>
+    <hyperlink ref="H49" r:id="rId38" xr:uid="{A922F6B7-45E9-4EC5-85E8-E946899CA468}"/>
+    <hyperlink ref="H50" r:id="rId39" xr:uid="{0AF8DC04-D1CF-4807-A710-B373CBBE5749}"/>
+    <hyperlink ref="G51" r:id="rId40" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
+    <hyperlink ref="H51" r:id="rId41" xr:uid="{8352E298-0BDE-450E-AE5B-924C8B5CB9CD}"/>
+    <hyperlink ref="G52" r:id="rId42" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
+    <hyperlink ref="G53" r:id="rId43" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
+    <hyperlink ref="G54" r:id="rId44" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
+    <hyperlink ref="G55" r:id="rId45" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
+    <hyperlink ref="H52" r:id="rId46" xr:uid="{55C03EBD-3D41-4E5F-A435-4C0B2DEC9E55}"/>
+    <hyperlink ref="H53" r:id="rId47" xr:uid="{5341A66B-EA9D-4F56-9303-65E0631861C6}"/>
+    <hyperlink ref="H54" r:id="rId48" xr:uid="{C7DA9EE0-3D80-451F-9631-DF7414C08C9E}"/>
+    <hyperlink ref="H55" r:id="rId49" xr:uid="{47CAF88F-2E58-41EA-ABAE-C3F5EDFD7480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId50"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B187-DCBA-49A8-BB4B-E8542E41CC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7212A37-5921-4A51-9418-5AAFE4B7DDE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="222">
   <si>
     <t>TSID</t>
   </si>
@@ -760,19 +760,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Fail:getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 00d4d616dde44e10f0dc66aae735c442getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 00d4d616dde44e10f0dc66aae735c442</t>
   </si>
 </sst>
 </file>
@@ -1337,9 +1324,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,24 +1361,24 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="65.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="9.765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="255.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="70.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="13" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2130,7 +2117,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7212A37-5921-4A51-9418-5AAFE4B7DDE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B187-DCBA-49A8-BB4B-E8542E41CC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="223">
   <si>
     <t>TSID</t>
   </si>
@@ -760,6 +760,19 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Fail:getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 00d4d616dde44e10f0dc66aae735c442getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 00d4d616dde44e10f0dc66aae735c442</t>
   </si>
 </sst>
 </file>
@@ -1324,9 +1337,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1361,24 +1374,24 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="70.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.85546875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="65.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="9.765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="255.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="70.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="13" max="16384" style="4" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2117,7 +2130,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651B187-DCBA-49A8-BB4B-E8542E41CC79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F97D1-FDB9-421B-8F6E-53395FCB12D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="248">
   <si>
     <t>TSID</t>
   </si>
@@ -686,9 +686,6 @@
     <t>rashmi.rl@thomsonreuters.com</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>CheckboxSelection</t>
   </si>
   <si>
@@ -746,33 +743,239 @@
     <t>ES198601278A</t>
   </si>
   <si>
-    <t>Fail: java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@125855a3 (tried for 50 second(s) with 500 milliseconds interval)
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2e32a8c4 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7c5aecfb86feda4f648a56f8f452bf6a java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@125855a3 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61426}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ad33f3cc438da53e2c48224f39c0fcwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2e32a8c4 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7c5aecfb86feda4f648a56f8f452bf6a</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fail:getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61426}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ad33f3cc438da53e2c48224f39c0fc</t>
+  </si>
+  <si>
+    <t>Rerun</t>
+  </si>
+  <si>
+    <t>Fail:click on Button Tab Insights is not working for :: java.lang.NullPointerExceptionclick on Button Tab Insights is not working for :: java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:clickOnThumbsUpIcon is not workingjava.lang.NullPointerExceptionclickOnThumbsUpIcon is not workingjava.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:Title Field is not displayed for given row in Literature results page.Title is not displayed for given row in Patent results page.Patent tab is not displayed in results page.Literature tab is not displayed in results page.SearchBox is not displayed next to Liturature Tab.</t>
+  </si>
+  <si>
+    <t>Fail:nullnull</t>
+  </si>
+  <si>
+    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@37489e45 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 00d4d616dde44e10f0dc66aae735c442getTextGuidedTipsToastMessage is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //span[contains(.,'You are in Help mode. Use the toggle in the Support menu to turn the tips on and off any time.')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@544b805b (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60833}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 86aaf565f74f4903c6a42e2001cd98d1hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@37489e45 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.61.204', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.212, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56363}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 00d4d616dde44e10f0dc66aae735c442</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60833}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 86aaf565f74f4903c6a42e2001cd98d1</t>
+  </si>
+  <si>
+    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@206d7f15 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55555}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8adf3a36bb0fca3958115472e66174e6hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@206d7f15 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55555}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8adf3a36bb0fca3958115472e66174e6</t>
+  </si>
+  <si>
+    <t>Fail:Toast Message has not been displayed.Search box accepted morethan 2000 characters</t>
+  </si>
+  <si>
+    <t>Fail:getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51235}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d2275a66ca0ccabe24b119ce462f12d1
+*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51235}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d2275a66ca0ccabe24b119ce462f12d1
+*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}</t>
+  </si>
+  <si>
+    <t>Fail:isDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerExceptionisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:ClearAll button is in disable modeclickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58036}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5e99098926a26aab6a7e744f4ebe47d9
+*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}clickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58036}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5e99098926a26aab6a7e744f4ebe47d9
+*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail:clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@cf08bec (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61364}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a9c619a601bbd29729595f9063780838clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@cf08bec (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61364}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a9c619a601bbd29729595f9063780838Results are not get refreshed </t>
+  </si>
+  <si>
+    <t>Fail:PDF window opens has not opened</t>
+  </si>
+  <si>
+    <t>Fail:dropdown value has not fetchedjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-value']/span/span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@615e555d (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60020}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9c29b511e0f7295e7accff85995be0d8dropdown value has not fetchedjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-value']/span/span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@615e555d (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60020}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9c29b511e0f7295e7accff85995be0d8</t>
+  </si>
+  <si>
+    <t>Fail:RESULT SETS ARE NOT REFRESHED  : 	0		 :	1759456RESULT SETS ARE NOT REFRESHED : 	0		 AFTER FILTER :	1759456</t>
+  </si>
+  <si>
+    <t>Fail:INVENTOR FILTER FIELD  IS ENABLED</t>
+  </si>
+  <si>
+    <t>Fail:Inventor filter field  IS ENABLED</t>
+  </si>
+  <si>
+    <t>Fail:checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57543}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9ef33598e97cc300166e18f03587e4d5checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57543}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9ef33598e97cc300166e18f03587e4d5</t>
+  </si>
+  <si>
+    <t>Fail:checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55134}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ac4881dbb7541956be0c94efa15cb71acheckbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55134}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ac4881dbb7541956be0c94efa15cb71a</t>
+  </si>
+  <si>
+    <t>Fail:RESULT SETS ARE NOT REFRESHED  : 	28551		 AFTER FILTER :	154waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; aside &gt; div:nth-child(1) &gt; span.pn' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27de4165 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63655}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: b7c44885cd7be62fb773220e779c505bwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; aside &gt; div:nth-child(1) &gt; span.pn' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27de4165 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63655}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: b7c44885cd7be62fb773220e779c505b</t>
+  </si>
+  <si>
+    <t>Fail:getTextLiteratureTitle is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56914}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c9f312d12df25e39d309a236c704c38d
+*** Element info: {Using=css selector, value=app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle}getTextLiteratureTitle is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle"}
+  (Session info: chrome=91.0.4472.124)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56914}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c9f312d12df25e39d309a236c704c38d
+*** Element info: {Using=css selector, value=app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@40a1ff79 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60427}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 2cc58071c0117c7a31960630ab7b60e9clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@40a1ff79 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60427}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 2cc58071c0117c7a31960630ab7b60e9</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkCitingPatent is not workingjava.lang.Exception: jsClick is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' (tried for 50 second(s) with 500 milliseconds interval)clickOnLinkCitingPatent is not workingjava.lang.Exception: jsClick is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Fail:clickOnCitingPatentViewASResultSet is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (26a2606bc0f59e6c132214108e51d4a9)] -&gt; xpath: (//span[contains(.,'View as result set')])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@34fa4ff7 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 26a2606bc0f59e6c132214108e51d4a9clickOnCitingPatentViewASResultSet is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (26a2606bc0f59e6c132214108e51d4a9)] -&gt; xpath: (//span[contains(.,'View as result set')])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@34fa4ff7 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 26a2606bc0f59e6c132214108e51d4a9</t>
+  </si>
+  <si>
+    <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)</t>
   </si>
 </sst>
 </file>
@@ -1337,9 +1540,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1371,30 +1574,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="65.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="45.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="9.765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="255.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="70.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
-    <col min="13" max="16384" style="4" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="59" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1434,8 +1637,11 @@
       <c r="M1" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1449,22 +1655,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
         <v>221</v>
       </c>
-      <c r="F2" t="s">
-        <v>176</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -1478,22 +1684,22 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1507,22 +1713,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -1536,22 +1742,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1565,22 +1771,22 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1594,16 +1800,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
@@ -1612,7 +1818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -1626,16 +1832,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>35</v>
@@ -1644,7 +1850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -1658,16 +1864,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>35</v>
@@ -1676,7 +1882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
@@ -1690,22 +1896,22 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -1719,16 +1925,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
@@ -1737,7 +1943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
@@ -1751,16 +1957,16 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
@@ -1769,7 +1975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -1783,16 +1989,16 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
@@ -1801,7 +2007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
@@ -1815,16 +2021,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -1833,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -1847,16 +2053,16 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>35</v>
@@ -1865,7 +2071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
@@ -1879,19 +2085,19 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="I16" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1909,16 +2115,16 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>17</v>
@@ -1940,7 +2146,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -1949,7 +2155,7 @@
         <v>199</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>68</v>
@@ -1970,16 +2176,16 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>17</v>
@@ -2001,7 +2207,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2010,7 +2216,7 @@
         <v>199</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>23</v>
@@ -2032,7 +2238,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2041,7 +2247,7 @@
         <v>199</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>103</v>
@@ -2059,7 +2265,7 @@
         <v>105</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>14</v>
@@ -2068,16 +2274,16 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>106</v>
@@ -2099,16 +2305,16 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>200</v>
+      <c r="H23" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>23</v>
@@ -2130,7 +2336,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2139,7 +2345,7 @@
         <v>199</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -2158,7 +2364,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2167,7 +2373,7 @@
         <v>199</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>23</v>
@@ -2189,7 +2395,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2198,7 +2404,7 @@
         <v>199</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>103</v>
@@ -2220,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2229,7 +2435,7 @@
         <v>199</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>73</v>
@@ -2253,16 +2459,16 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>115</v>
@@ -2282,7 +2488,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2291,7 +2497,7 @@
         <v>199</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>106</v>
@@ -2311,7 +2517,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2320,7 +2526,7 @@
         <v>199</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>106</v>
@@ -2340,16 +2546,16 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>106</v>
@@ -2369,16 +2575,16 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>106</v>
@@ -2398,7 +2604,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2407,7 +2613,7 @@
         <v>199</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>106</v>
@@ -2427,7 +2633,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2436,7 +2642,7 @@
         <v>199</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>106</v>
@@ -2456,7 +2662,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2465,7 +2671,7 @@
         <v>199</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>106</v>
@@ -2485,7 +2691,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2494,7 +2700,7 @@
         <v>199</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>106</v>
@@ -2515,7 +2721,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2524,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>115</v>
@@ -2545,7 +2751,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2554,7 +2760,7 @@
         <v>199</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>115</v>
@@ -2575,7 +2781,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2584,7 +2790,7 @@
         <v>199</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>115</v>
@@ -2605,7 +2811,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2614,7 +2820,7 @@
         <v>199</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>115</v>
@@ -2635,7 +2841,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -2644,7 +2850,7 @@
         <v>199</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>115</v>
@@ -2664,7 +2870,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -2673,7 +2879,7 @@
         <v>199</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>115</v>
@@ -2699,10 +2905,10 @@
         <v>176</v>
       </c>
       <c r="G43" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>157</v>
@@ -2722,16 +2928,16 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="G44" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>20</v>
@@ -2751,16 +2957,16 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="G45" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>20</v>
@@ -2780,16 +2986,16 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>176</v>
       </c>
       <c r="G46" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>163</v>
@@ -2809,16 +3015,16 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>165</v>
@@ -2838,16 +3044,16 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
       </c>
       <c r="G48" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>23</v>
@@ -2867,16 +3073,16 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="G49" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>180</v>
@@ -2896,16 +3102,16 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="G50" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>205</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>20</v>
@@ -2926,16 +3132,16 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>23</v>
@@ -2959,7 +3165,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -2968,7 +3174,7 @@
         <v>199</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>103</v>
@@ -2988,16 +3194,16 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>190</v>
@@ -3005,7 +3211,7 @@
     </row>
     <row r="54" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>197</v>
@@ -3017,16 +3223,16 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="24" t="s">
-        <v>200</v>
+      <c r="H54" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>103</v>
@@ -3035,19 +3241,19 @@
     </row>
     <row r="55" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B55" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>202</v>
-      </c>
       <c r="E55" s="4" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3055,8 +3261,8 @@
       <c r="G55" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="H55" s="24" t="s">
-        <v>200</v>
+      <c r="H55" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>190</v>
@@ -3065,58 +3271,58 @@
     </row>
     <row r="56" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="E56" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="I56" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>208</v>
-      </c>
       <c r="E57" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="G57" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>20</v>
@@ -3125,28 +3331,28 @@
     </row>
     <row r="58" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>210</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="G58" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>23</v>
@@ -3160,54 +3366,41 @@
     <hyperlink ref="G17" r:id="rId1" xr:uid="{723970F4-4603-469C-B45C-96036D0B804A}"/>
     <hyperlink ref="H17" r:id="rId2" xr:uid="{2AD4D63B-2996-4EF0-8A2F-8AF5B6BD9CC8}"/>
     <hyperlink ref="G18:G33" r:id="rId3" display="rashmi.rl@thomsonreuters.com" xr:uid="{3DB5E2C0-A750-4358-9BF6-32D3D98D2096}"/>
-    <hyperlink ref="H18:H33" r:id="rId4" display="Admin@123" xr:uid="{BA92D6DD-AADB-4069-AFCB-839A6F14E232}"/>
-    <hyperlink ref="G33" r:id="rId5" xr:uid="{17A7C8C6-2597-4D73-A91A-12BAC045FE55}"/>
-    <hyperlink ref="G34" r:id="rId6" xr:uid="{5B70CB00-7AFC-441C-8B21-F20FFAC5C9AF}"/>
-    <hyperlink ref="G35" r:id="rId7" xr:uid="{52261ED4-7225-4B8F-970A-9E1807022FE1}"/>
-    <hyperlink ref="G36" r:id="rId8" xr:uid="{501C3C63-1543-43E6-8460-64278CEC18A9}"/>
-    <hyperlink ref="G37" r:id="rId9" xr:uid="{CDA235E6-241E-4DCC-ACAE-541EAE638029}"/>
-    <hyperlink ref="G38" r:id="rId10" xr:uid="{2CC833FE-2CFA-4F55-A03C-0F6D36B8FF1A}"/>
-    <hyperlink ref="G39" r:id="rId11" xr:uid="{7CB5209A-D384-479E-ABBE-818E4A32E00E}"/>
-    <hyperlink ref="H34" r:id="rId12" xr:uid="{844571CA-3BAD-467A-A34B-3A358EC13C1E}"/>
-    <hyperlink ref="H35" r:id="rId13" xr:uid="{68973837-B14A-4E03-86E4-985D4BC30277}"/>
-    <hyperlink ref="H36" r:id="rId14" xr:uid="{E5973375-6697-471D-BBCC-1169C0B3ED3D}"/>
-    <hyperlink ref="H37" r:id="rId15" xr:uid="{A778FDBC-52CD-41F2-ACD2-4FE7CE425AAD}"/>
-    <hyperlink ref="H38" r:id="rId16" xr:uid="{50A1E3B2-8159-4D87-A1FE-2D2F37C0272D}"/>
-    <hyperlink ref="H39" r:id="rId17" xr:uid="{B873B963-4DD0-4904-B0A5-116E0B3CD77A}"/>
-    <hyperlink ref="G40" r:id="rId18" xr:uid="{8398B387-7BC7-498B-9AA4-042A87D3A4DB}"/>
-    <hyperlink ref="H40" r:id="rId19" xr:uid="{048C8336-07F0-4FDE-8DB7-0B965C168F26}"/>
-    <hyperlink ref="G41" r:id="rId20" xr:uid="{F030BE8B-BC36-49E1-8D71-1478C5C4BCDF}"/>
-    <hyperlink ref="H41" r:id="rId21" xr:uid="{8B0D0D08-8A2C-4C34-BC5D-820B82A6579F}"/>
-    <hyperlink ref="G42" r:id="rId22" xr:uid="{23135E44-8E96-4D83-A082-A7511C1C0771}"/>
-    <hyperlink ref="H42" r:id="rId23" xr:uid="{335C4A8A-91EB-43FA-927A-A03E96ADF2D2}"/>
-    <hyperlink ref="G43" r:id="rId24" xr:uid="{0CCCEC04-DDD0-4D0F-8D23-C47F6F6CEC53}"/>
-    <hyperlink ref="H43" r:id="rId25" xr:uid="{D41C1E47-89D1-498E-802F-F4AA544A235B}"/>
-    <hyperlink ref="G44" r:id="rId26" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
-    <hyperlink ref="G45" r:id="rId27" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
-    <hyperlink ref="G46" r:id="rId28" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
-    <hyperlink ref="G47" r:id="rId29" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
-    <hyperlink ref="G48" r:id="rId30" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
-    <hyperlink ref="G49" r:id="rId31" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
-    <hyperlink ref="G50" r:id="rId32" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
-    <hyperlink ref="H44" r:id="rId33" xr:uid="{57BA88B1-4374-4605-B1CF-000FB7A9AD17}"/>
-    <hyperlink ref="H45" r:id="rId34" xr:uid="{1020C407-DE4D-45CD-B802-7B6DA3235B83}"/>
-    <hyperlink ref="H46" r:id="rId35" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
-    <hyperlink ref="H47" r:id="rId36" xr:uid="{A2EA3677-590B-439E-B26B-BBB5D057F411}"/>
-    <hyperlink ref="H48" r:id="rId37" xr:uid="{E55440CE-A9F7-403D-B428-B5518F503072}"/>
-    <hyperlink ref="H49" r:id="rId38" xr:uid="{A922F6B7-45E9-4EC5-85E8-E946899CA468}"/>
-    <hyperlink ref="H50" r:id="rId39" xr:uid="{0AF8DC04-D1CF-4807-A710-B373CBBE5749}"/>
-    <hyperlink ref="G51" r:id="rId40" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
-    <hyperlink ref="H51" r:id="rId41" xr:uid="{8352E298-0BDE-450E-AE5B-924C8B5CB9CD}"/>
-    <hyperlink ref="G52" r:id="rId42" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
-    <hyperlink ref="G53" r:id="rId43" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
-    <hyperlink ref="G54" r:id="rId44" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
-    <hyperlink ref="G55" r:id="rId45" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
-    <hyperlink ref="H52" r:id="rId46" xr:uid="{55C03EBD-3D41-4E5F-A435-4C0B2DEC9E55}"/>
-    <hyperlink ref="H53" r:id="rId47" xr:uid="{5341A66B-EA9D-4F56-9303-65E0631861C6}"/>
-    <hyperlink ref="H54" r:id="rId48" xr:uid="{C7DA9EE0-3D80-451F-9631-DF7414C08C9E}"/>
-    <hyperlink ref="H55" r:id="rId49" xr:uid="{47CAF88F-2E58-41EA-ABAE-C3F5EDFD7480}"/>
+    <hyperlink ref="G33" r:id="rId4" xr:uid="{17A7C8C6-2597-4D73-A91A-12BAC045FE55}"/>
+    <hyperlink ref="G34" r:id="rId5" xr:uid="{5B70CB00-7AFC-441C-8B21-F20FFAC5C9AF}"/>
+    <hyperlink ref="G35" r:id="rId6" xr:uid="{52261ED4-7225-4B8F-970A-9E1807022FE1}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{501C3C63-1543-43E6-8460-64278CEC18A9}"/>
+    <hyperlink ref="G37" r:id="rId8" xr:uid="{CDA235E6-241E-4DCC-ACAE-541EAE638029}"/>
+    <hyperlink ref="G38" r:id="rId9" xr:uid="{2CC833FE-2CFA-4F55-A03C-0F6D36B8FF1A}"/>
+    <hyperlink ref="G39" r:id="rId10" xr:uid="{7CB5209A-D384-479E-ABBE-818E4A32E00E}"/>
+    <hyperlink ref="G40" r:id="rId11" xr:uid="{8398B387-7BC7-498B-9AA4-042A87D3A4DB}"/>
+    <hyperlink ref="G41" r:id="rId12" xr:uid="{F030BE8B-BC36-49E1-8D71-1478C5C4BCDF}"/>
+    <hyperlink ref="G42" r:id="rId13" xr:uid="{23135E44-8E96-4D83-A082-A7511C1C0771}"/>
+    <hyperlink ref="G43" r:id="rId14" xr:uid="{0CCCEC04-DDD0-4D0F-8D23-C47F6F6CEC53}"/>
+    <hyperlink ref="H43" r:id="rId15" xr:uid="{D41C1E47-89D1-498E-802F-F4AA544A235B}"/>
+    <hyperlink ref="G44" r:id="rId16" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
+    <hyperlink ref="G45" r:id="rId17" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
+    <hyperlink ref="G46" r:id="rId18" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
+    <hyperlink ref="G47" r:id="rId19" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
+    <hyperlink ref="G48" r:id="rId20" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
+    <hyperlink ref="G49" r:id="rId21" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
+    <hyperlink ref="G50" r:id="rId22" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
+    <hyperlink ref="H44" r:id="rId23" xr:uid="{57BA88B1-4374-4605-B1CF-000FB7A9AD17}"/>
+    <hyperlink ref="H45" r:id="rId24" xr:uid="{1020C407-DE4D-45CD-B802-7B6DA3235B83}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
+    <hyperlink ref="H47" r:id="rId26" xr:uid="{A2EA3677-590B-439E-B26B-BBB5D057F411}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{E55440CE-A9F7-403D-B428-B5518F503072}"/>
+    <hyperlink ref="H49" r:id="rId28" xr:uid="{A922F6B7-45E9-4EC5-85E8-E946899CA468}"/>
+    <hyperlink ref="H50" r:id="rId29" xr:uid="{0AF8DC04-D1CF-4807-A710-B373CBBE5749}"/>
+    <hyperlink ref="G51" r:id="rId30" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
+    <hyperlink ref="G52" r:id="rId31" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
+    <hyperlink ref="G53" r:id="rId32" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
+    <hyperlink ref="G54" r:id="rId33" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
+    <hyperlink ref="G55" r:id="rId34" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
+    <hyperlink ref="H18:H42" r:id="rId35" display="Test@123" xr:uid="{428C5C26-7283-4267-926D-F8A15A909940}"/>
+    <hyperlink ref="H51:H55" r:id="rId36" display="Test@123" xr:uid="{1F19B917-4AC7-4318-9D2C-B3B3447CBA4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId50"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F97D1-FDB9-421B-8F6E-53395FCB12D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139C8D3-22E8-45D4-9E75-3412C2F9E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
   <si>
     <t>TSID</t>
   </si>
@@ -762,9 +762,6 @@
 Session ID: 53ad33f3cc438da53e2c48224f39c0fc</t>
   </si>
   <si>
-    <t>Rerun</t>
-  </si>
-  <si>
     <t>Fail:click on Button Tab Insights is not working for :: java.lang.NullPointerExceptionclick on Button Tab Insights is not working for :: java.lang.NullPointerException</t>
   </si>
   <si>
@@ -847,19 +844,6 @@
 *** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}</t>
   </si>
   <si>
-    <t xml:space="preserve">Fail:clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@cf08bec (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61364}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a9c619a601bbd29729595f9063780838clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@cf08bec (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61364}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a9c619a601bbd29729595f9063780838Results are not get refreshed </t>
-  </si>
-  <si>
     <t>Fail:PDF window opens has not opened</t>
   </si>
   <si>
@@ -976,6 +960,106 @@
   </si>
   <si>
     <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1291</t>
+  </si>
+  <si>
+    <t>validate Structure Search landing page and literature tab</t>
+  </si>
+  <si>
+    <t>validateStructureSearchAndLiteratureTab</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1292</t>
+  </si>
+  <si>
+    <t>validate phrase and keywords in restuls page for the structure search</t>
+  </si>
+  <si>
+    <t>validateStructureSearchKeywordsAndPhrase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antibacterial, polyethylene, resin </t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1293</t>
+  </si>
+  <si>
+    <t>validate hit structure images and pagination</t>
+  </si>
+  <si>
+    <t>validateHitStructureImagesAndPagination</t>
+  </si>
+  <si>
+    <t>CN110343315A</t>
+  </si>
+  <si>
+    <t>Validate Chemical Structure filter Field</t>
+  </si>
+  <si>
+    <t>Validate ChemicalStructure Pagination And CheckboxSelection</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate TextInputBox For Structure</t>
+  </si>
+  <si>
+    <t>CC(=O)OC1=CC=CC=C1C(=O)O</t>
+  </si>
+  <si>
+    <t>smiley</t>
+  </si>
+  <si>
+    <t>validateChemicalStructureFilterField</t>
+  </si>
+  <si>
+    <t>validateChemicalStructureFilterPaginationAndCheckboxSelection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validateTextInputBoxForStructure</t>
+  </si>
+  <si>
+    <t>validateModifyChemicalStructureModal</t>
+  </si>
+  <si>
+    <t>Validate Modify Chemical StructureModal</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1346</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1347</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1348</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail:clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@ac9f52b (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.210', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: dde5f8da0abad15f5de451ac7fd9aaddclickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@ac9f52b (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.210', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: dde5f8da0abad15f5de451ac7fd9aaddResults are not get refreshed </t>
+  </si>
+  <si>
+    <t>Rerun</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1126,6 +1210,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1136,7 +1231,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1187,6 +1282,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1574,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,10 +1690,13 @@
     <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.85546875" style="4" collapsed="1"/>
+    <col min="13" max="13" width="8.85546875" style="4" collapsed="1"/>
+    <col min="14" max="14" width="28" style="4" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.85546875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1640,8 +1739,11 @@
       <c r="N1" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1655,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -1670,7 +1772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -1684,10 +1786,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>204</v>
@@ -1699,7 +1801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1713,10 +1815,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>204</v>
@@ -1728,7 +1830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -1742,10 +1844,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>204</v>
@@ -1757,7 +1859,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1771,10 +1873,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>204</v>
@@ -1786,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1800,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -1818,7 +1920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -1832,10 +1934,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>204</v>
@@ -1850,7 +1952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -1864,10 +1966,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>204</v>
@@ -1882,7 +1984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
@@ -1896,10 +1998,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>204</v>
@@ -1911,7 +2013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -1925,10 +2027,10 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>204</v>
@@ -1943,7 +2045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
@@ -1957,7 +2059,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
@@ -1975,7 +2077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -1989,10 +2091,10 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>204</v>
@@ -2007,7 +2109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
@@ -2021,10 +2123,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>204</v>
@@ -2039,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -2053,10 +2155,10 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>204</v>
@@ -2071,7 +2173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
@@ -2085,7 +2187,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -2115,10 +2217,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>199</v>
@@ -2146,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -2176,10 +2278,10 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
@@ -2207,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2238,7 +2340,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2274,10 +2376,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>199</v>
@@ -2305,10 +2407,10 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>199</v>
@@ -2336,7 +2438,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2364,7 +2466,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2395,7 +2497,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2426,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2459,10 +2561,10 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>199</v>
@@ -2488,7 +2590,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2517,7 +2619,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2546,10 +2648,10 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>199</v>
@@ -2575,10 +2677,10 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>199</v>
@@ -2604,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2633,7 +2735,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2662,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2691,7 +2793,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2721,7 +2823,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2751,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2781,7 +2883,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2811,7 +2913,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2841,7 +2943,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -2870,7 +2972,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -2899,7 +3001,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
@@ -2928,10 +3030,10 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>204</v>
@@ -2957,10 +3059,10 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>204</v>
@@ -2986,7 +3088,7 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
         <v>176</v>
@@ -3015,7 +3117,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3044,7 +3146,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
@@ -3059,7 +3161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>191</v>
       </c>
@@ -3073,10 +3175,10 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>204</v>
@@ -3088,7 +3190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>192</v>
       </c>
@@ -3102,10 +3204,10 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>204</v>
@@ -3118,7 +3220,7 @@
       </c>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:13" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>193</v>
       </c>
@@ -3132,10 +3234,10 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>199</v>
@@ -3151,7 +3253,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>194</v>
       </c>
@@ -3165,7 +3267,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -3180,7 +3282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>195</v>
       </c>
@@ -3194,10 +3296,10 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>199</v>
@@ -3209,7 +3311,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>215</v>
       </c>
@@ -3223,10 +3325,10 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>199</v>
@@ -3239,7 +3341,7 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>216</v>
       </c>
@@ -3253,7 +3355,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3269,7 +3371,7 @@
       </c>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>210</v>
       </c>
@@ -3283,10 +3385,10 @@
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>204</v>
@@ -3299,7 +3401,7 @@
       </c>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>211</v>
       </c>
@@ -3313,10 +3415,10 @@
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>204</v>
@@ -3329,7 +3431,7 @@
       </c>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>212</v>
       </c>
@@ -3343,10 +3445,10 @@
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>204</v>
@@ -3358,6 +3460,236 @@
         <v>23</v>
       </c>
       <c r="J58" s="25"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="N63" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M53" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
@@ -3399,8 +3731,16 @@
     <hyperlink ref="G55" r:id="rId34" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
     <hyperlink ref="H18:H42" r:id="rId35" display="Test@123" xr:uid="{428C5C26-7283-4267-926D-F8A15A909940}"/>
     <hyperlink ref="H51:H55" r:id="rId36" display="Test@123" xr:uid="{1F19B917-4AC7-4318-9D2C-B3B3447CBA4E}"/>
+    <hyperlink ref="G62" r:id="rId37" xr:uid="{C837631E-D83F-4CAB-B7EF-359AC0B72C2C}"/>
+    <hyperlink ref="G63" r:id="rId38" xr:uid="{B216E578-99F7-4539-95BC-CEAE985CF4A1}"/>
+    <hyperlink ref="G64" r:id="rId39" xr:uid="{1E1ADCC4-95BC-4AF8-9AB3-7EE388B85F1D}"/>
+    <hyperlink ref="G65" r:id="rId40" xr:uid="{C0E8DCD0-B5EB-40AA-B3E2-20F3244F6E65}"/>
+    <hyperlink ref="H62" r:id="rId41" xr:uid="{111BCB90-F2D5-450B-B749-7249F56DBF39}"/>
+    <hyperlink ref="H63" r:id="rId42" xr:uid="{29167A98-D6C2-4F18-BA83-7020E938AB86}"/>
+    <hyperlink ref="H64" r:id="rId43" xr:uid="{B0A91A7F-96A4-477C-9A31-4C51B69E3C70}"/>
+    <hyperlink ref="H65" r:id="rId44" xr:uid="{6DA28F36-CB17-4142-B2C8-A1F53BE08003}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId37"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139C8D3-22E8-45D4-9E75-3412C2F9E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3290FCD0-9064-46FF-9C85-C39640DDCF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="277">
   <si>
     <t>TSID</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>Rerun</t>
+  </si>
+  <si>
+    <t>fibers</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1676,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3685,7 @@
         <v>219</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>253</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3290FCD0-9064-46FF-9C85-C39640DDCF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FAF91-C13E-46DD-9F46-B1EA2C312253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
   <si>
     <t>TSID</t>
   </si>
@@ -1060,9 +1060,6 @@
   </si>
   <si>
     <t>Rerun</t>
-  </si>
-  <si>
-    <t>fibers</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3682,7 @@
         <v>219</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>253</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FAF91-C13E-46DD-9F46-B1EA2C312253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB49EE6-C008-45B7-AFFB-35165BB8D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,9 +1004,6 @@
     <t>Validate Chemical Structure filter Field</t>
   </si>
   <si>
-    <t>Validate ChemicalStructure Pagination And CheckboxSelection</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -1060,6 +1057,9 @@
   </si>
   <si>
     <t>Rerun</t>
+  </si>
+  <si>
+    <t>Validate ChemicalStructure Pagination And CheckboxSelections</t>
   </si>
 </sst>
 </file>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1740,7 @@
         <v>220</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -1786,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>222</v>
@@ -1815,7 +1815,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>223</v>
@@ -1844,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>224</v>
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
         <v>225</v>
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -1934,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>226</v>
@@ -1966,7 +1966,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>227</v>
@@ -1998,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>228</v>
@@ -2027,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
         <v>229</v>
@@ -2059,7 +2059,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
@@ -2091,7 +2091,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>230</v>
@@ -2123,7 +2123,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
         <v>230</v>
@@ -2155,7 +2155,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>225</v>
@@ -2187,7 +2187,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -2217,7 +2217,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>231</v>
@@ -2248,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -2278,10 +2278,10 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
@@ -2309,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2340,7 +2340,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2376,7 +2376,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>232</v>
@@ -2407,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>233</v>
@@ -2438,7 +2438,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2466,7 +2466,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2497,7 +2497,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2528,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2561,7 +2561,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>234</v>
@@ -2590,7 +2590,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2619,7 +2619,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2648,7 +2648,7 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>235</v>
@@ -2677,7 +2677,7 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>236</v>
@@ -2706,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2735,7 +2735,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2764,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2793,7 +2793,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2823,7 +2823,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2853,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2883,7 +2883,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2913,7 +2913,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2943,7 +2943,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -2972,7 +2972,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -3001,7 +3001,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
@@ -3030,7 +3030,7 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
         <v>237</v>
@@ -3059,7 +3059,7 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
         <v>238</v>
@@ -3088,7 +3088,7 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F46" t="s">
         <v>176</v>
@@ -3117,7 +3117,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3146,7 +3146,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
@@ -3175,7 +3175,7 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
         <v>239</v>
@@ -3204,7 +3204,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>240</v>
@@ -3234,7 +3234,7 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>241</v>
@@ -3267,7 +3267,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -3296,7 +3296,7 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>242</v>
@@ -3325,7 +3325,7 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>243</v>
@@ -3355,7 +3355,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3385,7 +3385,7 @@
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>244</v>
@@ -3415,7 +3415,7 @@
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>245</v>
@@ -3445,7 +3445,7 @@
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>245</v>
@@ -3475,7 +3475,7 @@
         <v>248</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>176</v>
@@ -3504,7 +3504,7 @@
         <v>252</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>176</v>
@@ -3539,7 +3539,7 @@
         <v>257</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>176</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>259</v>
@@ -3568,10 +3568,10 @@
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>176</v>
@@ -3594,19 +3594,19 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F63" t="s">
         <v>176</v>
@@ -3621,24 +3621,24 @@
         <v>254</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" t="s">
         <v>176</v>
@@ -3658,19 +3658,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>176</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB49EE6-C008-45B7-AFFB-35165BB8D531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139C8D3-22E8-45D4-9E75-3412C2F9E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,6 +1004,9 @@
     <t>Validate Chemical Structure filter Field</t>
   </si>
   <si>
+    <t>Validate ChemicalStructure Pagination And CheckboxSelection</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -1057,9 +1060,6 @@
   </si>
   <si>
     <t>Rerun</t>
-  </si>
-  <si>
-    <t>Validate ChemicalStructure Pagination And CheckboxSelections</t>
   </si>
 </sst>
 </file>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1740,7 @@
         <v>220</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -1786,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>222</v>
@@ -1815,7 +1815,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
         <v>223</v>
@@ -1844,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>224</v>
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>225</v>
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -1934,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>226</v>
@@ -1966,7 +1966,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
         <v>227</v>
@@ -1998,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>228</v>
@@ -2027,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>229</v>
@@ -2059,7 +2059,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
@@ -2091,7 +2091,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F13" t="s">
         <v>230</v>
@@ -2123,7 +2123,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
         <v>230</v>
@@ -2155,7 +2155,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F15" t="s">
         <v>225</v>
@@ -2187,7 +2187,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -2217,7 +2217,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>231</v>
@@ -2248,7 +2248,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -2278,10 +2278,10 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
@@ -2309,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2340,7 +2340,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2376,7 +2376,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>232</v>
@@ -2407,7 +2407,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>233</v>
@@ -2438,7 +2438,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2466,7 +2466,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2497,7 +2497,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2528,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2561,7 +2561,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>234</v>
@@ -2590,7 +2590,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2619,7 +2619,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2648,7 +2648,7 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>235</v>
@@ -2677,7 +2677,7 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>236</v>
@@ -2706,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2735,7 +2735,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2764,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2793,7 +2793,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2823,7 +2823,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2853,7 +2853,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2883,7 +2883,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2913,7 +2913,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2943,7 +2943,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -2972,7 +2972,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -3001,7 +3001,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
@@ -3030,7 +3030,7 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
         <v>237</v>
@@ -3059,7 +3059,7 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
         <v>238</v>
@@ -3088,7 +3088,7 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
         <v>176</v>
@@ -3117,7 +3117,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3146,7 +3146,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
@@ -3175,7 +3175,7 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
         <v>239</v>
@@ -3204,7 +3204,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>240</v>
@@ -3234,7 +3234,7 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>241</v>
@@ -3267,7 +3267,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -3296,7 +3296,7 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>242</v>
@@ -3325,7 +3325,7 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>243</v>
@@ -3355,7 +3355,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3385,7 +3385,7 @@
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>244</v>
@@ -3415,7 +3415,7 @@
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>245</v>
@@ -3445,7 +3445,7 @@
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>245</v>
@@ -3475,7 +3475,7 @@
         <v>248</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>176</v>
@@ -3504,7 +3504,7 @@
         <v>252</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>176</v>
@@ -3539,7 +3539,7 @@
         <v>257</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>176</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>259</v>
@@ -3568,10 +3568,10 @@
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>176</v>
@@ -3594,19 +3594,19 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F63" t="s">
         <v>176</v>
@@ -3621,24 +3621,24 @@
         <v>254</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F64" t="s">
         <v>176</v>
@@ -3658,19 +3658,19 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>176</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139C8D3-22E8-45D4-9E75-3412C2F9E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032BB4B-11C0-49CF-AA53-CA7A9B2F05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,9 +1022,6 @@
     <t>validateChemicalStructureFilterField</t>
   </si>
   <si>
-    <t>validateChemicalStructureFilterPaginationAndCheckboxSelection</t>
-  </si>
-  <si>
     <t xml:space="preserve"> validateTextInputBoxForStructure</t>
   </si>
   <si>
@@ -1060,6 +1057,9 @@
   </si>
   <si>
     <t>Rerun</t>
+  </si>
+  <si>
+    <t>validateChemicalStructureFilterPaginationAndCheckboxSelections</t>
   </si>
 </sst>
 </file>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,10 +2278,10 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>259</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>262</v>
@@ -3603,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>261</v>
@@ -3626,16 +3626,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>261</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>260</v>
@@ -3667,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>261</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032BB4B-11C0-49CF-AA53-CA7A9B2F05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7523612F-8F9D-494E-A778-187F42FF456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1673,7 +1673,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,7 +3670,7 @@
         <v>275</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>176</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7523612F-8F9D-494E-A778-187F42FF456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E311762-5CD8-4583-9EB8-EBAAD6AD38FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="292">
   <si>
     <t>TSID</t>
   </si>
@@ -774,19 +774,6 @@
     <t>Fail:nullnull</t>
   </si>
   <si>
-    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@37489e45 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60833}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 86aaf565f74f4903c6a42e2001cd98d1hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@37489e45 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60833}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 86aaf565f74f4903c6a42e2001cd98d1</t>
-  </si>
-  <si>
     <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@206d7f15 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
@@ -1022,6 +1009,9 @@
     <t>validateChemicalStructureFilterField</t>
   </si>
   <si>
+    <t>validateChemicalStructureFilterPaginationAndCheckboxSelection</t>
+  </si>
+  <si>
     <t xml:space="preserve"> validateTextInputBoxForStructure</t>
   </si>
   <si>
@@ -1056,10 +1046,68 @@
 Session ID: dde5f8da0abad15f5de451ac7fd9aaddResults are not get refreshed </t>
   </si>
   <si>
-    <t>Rerun</t>
-  </si>
-  <si>
-    <t>validateChemicalStructureFilterPaginationAndCheckboxSelections</t>
+    <t>Validate - Resultset page - Company and Person search</t>
+  </si>
+  <si>
+    <t>one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine</t>
+  </si>
+  <si>
+    <t>Fail:setKeyWords is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (4a6fdb9121a765c6b1efc64caccf97de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@220e25fa (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.20.148', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.107, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62818}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4a6fdb9121a765c6b1efc64caccf97desetKeyWords is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (4a6fdb9121a765c6b1efc64caccf97de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@220e25fa (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.20.148', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.107, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62818}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4a6fdb9121a765c6b1efc64caccf97de</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vaildateCompanyPeopleSearchRSPage</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1590</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1569</t>
+  </si>
+  <si>
+    <t>Patent - validate customize cluster items</t>
+  </si>
+  <si>
+    <t>vaildatePatentClusterItems</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1570</t>
+  </si>
+  <si>
+    <t>Literature - validate customize cluster items</t>
+  </si>
+  <si>
+    <t>vaildateLiteratureClusterItems</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1567</t>
+  </si>
+  <si>
+    <t>Validate - Landing page - Company and Person search</t>
+  </si>
+  <si>
+    <t>vaildateCompanyPeopleSearch</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1568</t>
+  </si>
+  <si>
+    <t>Validate - Landing page - Company , Person search,Free text and Structure Search</t>
+  </si>
+  <si>
+    <t>vaildateCompanyPeoplePhraseStructureSearch</t>
+  </si>
+  <si>
+    <t>YN</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1279,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1283,6 +1331,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1670,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1791,7 @@
         <v>220</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1757,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -1786,7 +1837,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>222</v>
@@ -1815,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>223</v>
@@ -1844,7 +1895,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>224</v>
@@ -1873,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
         <v>225</v>
@@ -1902,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
@@ -1934,10 +1985,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>204</v>
@@ -1966,10 +2017,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>204</v>
@@ -1998,10 +2049,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>204</v>
@@ -2027,10 +2078,10 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>204</v>
@@ -2059,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
         <v>176</v>
@@ -2091,10 +2142,10 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>204</v>
@@ -2123,10 +2174,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>204</v>
@@ -2155,7 +2206,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
         <v>225</v>
@@ -2187,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -2217,10 +2268,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>199</v>
@@ -2248,7 +2299,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -2278,7 +2329,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>273</v>
@@ -2309,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2340,7 +2391,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2376,10 +2427,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>199</v>
@@ -2407,10 +2458,10 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>199</v>
@@ -2438,7 +2489,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2466,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2497,7 +2548,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2528,7 +2579,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2561,10 +2612,10 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>199</v>
@@ -2590,7 +2641,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2619,7 +2670,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2648,10 +2699,10 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>199</v>
@@ -2677,10 +2728,10 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>199</v>
@@ -2706,7 +2757,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2735,7 +2786,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2764,7 +2815,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2793,7 +2844,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2823,7 +2874,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2853,7 +2904,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2883,7 +2934,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2913,7 +2964,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2943,7 +2994,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -2972,7 +3023,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -3001,7 +3052,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
@@ -3030,10 +3081,10 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>204</v>
@@ -3059,10 +3110,10 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>204</v>
@@ -3088,7 +3139,7 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>176</v>
@@ -3117,7 +3168,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3146,7 +3197,7 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" t="s">
         <v>176</v>
@@ -3175,10 +3226,10 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>204</v>
@@ -3204,10 +3255,10 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>204</v>
@@ -3234,10 +3285,10 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>199</v>
@@ -3267,7 +3318,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -3296,10 +3347,10 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>199</v>
@@ -3325,10 +3376,10 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>199</v>
@@ -3355,7 +3406,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3385,10 +3436,10 @@
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>204</v>
@@ -3415,10 +3466,10 @@
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>204</v>
@@ -3445,10 +3496,10 @@
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>204</v>
@@ -3463,19 +3514,19 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>248</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>176</v>
@@ -3487,24 +3538,24 @@
         <v>205</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>252</v>
-      </c>
       <c r="E60" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>176</v>
@@ -3519,27 +3570,27 @@
         <v>20</v>
       </c>
       <c r="J60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>257</v>
-      </c>
       <c r="E61" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>176</v>
@@ -3551,10 +3602,10 @@
         <v>205</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3562,16 +3613,16 @@
         <v>269</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>176</v>
@@ -3586,10 +3637,10 @@
         <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -3597,7 +3648,7 @@
         <v>270</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>14</v>
@@ -3606,7 +3657,7 @@
         <v>266</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F63" t="s">
         <v>176</v>
@@ -3618,10 +3669,10 @@
         <v>219</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3638,7 +3689,7 @@
         <v>267</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" t="s">
         <v>176</v>
@@ -3653,7 +3704,7 @@
         <v>20</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3661,16 +3712,16 @@
         <v>272</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>176</v>
@@ -3685,14 +3736,165 @@
         <v>20</v>
       </c>
       <c r="J65" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="N65" s="4" t="s">
-        <v>254</v>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M53" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
+  <autoFilter ref="A1:M70" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G17" r:id="rId1" xr:uid="{723970F4-4603-469C-B45C-96036D0B804A}"/>
@@ -3739,8 +3941,10 @@
     <hyperlink ref="H63" r:id="rId42" xr:uid="{29167A98-D6C2-4F18-BA83-7020E938AB86}"/>
     <hyperlink ref="H64" r:id="rId43" xr:uid="{B0A91A7F-96A4-477C-9A31-4C51B69E3C70}"/>
     <hyperlink ref="H65" r:id="rId44" xr:uid="{6DA28F36-CB17-4142-B2C8-A1F53BE08003}"/>
+    <hyperlink ref="G70" r:id="rId45" xr:uid="{6303DB8D-1B7E-4608-812E-AB683479C51C}"/>
+    <hyperlink ref="H70" r:id="rId46" xr:uid="{3EC9ABF3-377B-46E8-8585-FD35C630B6C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E311762-5CD8-4583-9EB8-EBAAD6AD38FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD4775-2C07-48C3-B9F9-E117BE971738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="303">
   <si>
     <t>TSID</t>
   </si>
@@ -749,69 +749,6 @@
     <t>smiles</t>
   </si>
   <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2e32a8c4 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61426}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ad33f3cc438da53e2c48224f39c0fcwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2e32a8c4 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61426}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ad33f3cc438da53e2c48224f39c0fc</t>
-  </si>
-  <si>
-    <t>Fail:click on Button Tab Insights is not working for :: java.lang.NullPointerExceptionclick on Button Tab Insights is not working for :: java.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>Fail:clickOnThumbsUpIcon is not workingjava.lang.NullPointerExceptionclickOnThumbsUpIcon is not workingjava.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>Fail:Title Field is not displayed for given row in Literature results page.Title is not displayed for given row in Patent results page.Patent tab is not displayed in results page.Literature tab is not displayed in results page.SearchBox is not displayed next to Liturature Tab.</t>
-  </si>
-  <si>
-    <t>Fail:nullnull</t>
-  </si>
-  <si>
-    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@206d7f15 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55555}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8adf3a36bb0fca3958115472e66174e6hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@206d7f15 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55555}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8adf3a36bb0fca3958115472e66174e6</t>
-  </si>
-  <si>
-    <t>Fail:Toast Message has not been displayed.Search box accepted morethan 2000 characters</t>
-  </si>
-  <si>
-    <t>Fail:getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51235}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: d2275a66ca0ccabe24b119ce462f12d1
-*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51235}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: d2275a66ca0ccabe24b119ce462f12d1
-*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}</t>
-  </si>
-  <si>
-    <t>Fail:isDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerExceptionisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerException</t>
-  </si>
-  <si>
     <t>Fail:ClearAll button is in disable modeclickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
   (Session info: chrome=91.0.4472.124)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
@@ -856,64 +793,6 @@
     <t>Fail:Inventor filter field  IS ENABLED</t>
   </si>
   <si>
-    <t>Fail:checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57543}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9ef33598e97cc300166e18f03587e4d5checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (9ef33598e97cc300166e18f03587e4d5)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57543}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9ef33598e97cc300166e18f03587e4d5</t>
-  </si>
-  <si>
-    <t>Fail:checkbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55134}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ac4881dbb7541956be0c94efa15cb71acheckbox is not selectedjava.lang.Exception: jsClick is not  working on:: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: [[ChromeDriver: chrome on WINDOWS (ac4881dbb7541956be0c94efa15cb71a)] -&gt; xpath: //div[contains(text(),'Publication year')]/ancestor::mat-expansion-panel-header/following-sibling::div//mat-selection-list[@role='list']/mat-list-item[@role='listitem'][19]] (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55134}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ac4881dbb7541956be0c94efa15cb71a</t>
-  </si>
-  <si>
-    <t>Fail:RESULT SETS ARE NOT REFRESHED  : 	28551		 AFTER FILTER :	154waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; aside &gt; div:nth-child(1) &gt; span.pn' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27de4165 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63655}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: b7c44885cd7be62fb773220e779c505bwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; aside &gt; div:nth-child(1) &gt; span.pn' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27de4165 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63655}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: b7c44885cd7be62fb773220e779c505b</t>
-  </si>
-  <si>
-    <t>Fail:getTextLiteratureTitle is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56914}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c9f312d12df25e39d309a236c704c38d
-*** Element info: {Using=css selector, value=app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle}getTextLiteratureTitle is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56914}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c9f312d12df25e39d309a236c704c38d
-*** Element info: {Using=css selector, value=app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-header &gt; div &gt; mat-card-subtitle}</t>
-  </si>
-  <si>
     <t>Fail:clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@40a1ff79 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
@@ -933,22 +812,6 @@
     <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)</t>
   </si>
   <si>
-    <t>Fail:clickOnCitingPatentViewASResultSet is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (26a2606bc0f59e6c132214108e51d4a9)] -&gt; xpath: (//span[contains(.,'View as result set')])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@34fa4ff7 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 26a2606bc0f59e6c132214108e51d4a9clickOnCitingPatentViewASResultSet is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (26a2606bc0f59e6c132214108e51d4a9)] -&gt; xpath: (//span[contains(.,'View as result set')])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@34fa4ff7 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 26a2606bc0f59e6c132214108e51d4a9</t>
-  </si>
-  <si>
-    <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-maxlength='150']' (tried for 50 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
     <t>CHEMEXP-1291</t>
   </si>
   <si>
@@ -992,9 +855,6 @@
   </si>
   <si>
     <t>Validate ChemicalStructure Pagination And CheckboxSelection</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve"> Validate TextInputBox For Structure</t>
@@ -1052,19 +912,6 @@
     <t>one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine,ten,one,two,three,four,five,six,seven,eight,nine</t>
   </si>
   <si>
-    <t>Fail:setKeyWords is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (4a6fdb9121a765c6b1efc64caccf97de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@220e25fa (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.20.148', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.107, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62818}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 4a6fdb9121a765c6b1efc64caccf97desetKeyWords is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (4a6fdb9121a765c6b1efc64caccf97de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@220e25fa (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.20.148', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 92.0.4515.107, chrome: {chromedriverVersion: 92.0.4515.107 (87a818b10553..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62818}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 4a6fdb9121a765c6b1efc64caccf97de</t>
-  </si>
-  <si>
     <t xml:space="preserve"> vaildateCompanyPeopleSearchRSPage</t>
   </si>
   <si>
@@ -1107,7 +954,303 @@
     <t>vaildateCompanyPeoplePhraseStructureSearch</t>
   </si>
   <si>
-    <t>YN</t>
+    <t>Derwent@12345</t>
+  </si>
+  <si>
+    <t>Fail:isDisabledSearchIcon is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[1]/div[3]/button[2]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@109ab414 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57008}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fdbe747cfb6309788ca62290cbddcddcisDisabledSearchIcon is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[1]/div[3]/button[2]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@109ab414 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57008}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fdbe747cfb6309788ca62290cbddcddc</t>
+  </si>
+  <si>
+    <t>Fail:click on Button Tab Insights is not working for :: java.lang.NullPointerExceptionclick on Button Tab Insights is not working for :: java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:clickOnThumbsUpIcon is not workingjava.lang.NullPointerExceptionclickOnThumbsUpIcon is not workingjava.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:Title Field is not displayed for given row in Literature results page.Title is not displayed for given row in Patent results page.Patent tab is not displayed in results page.Literature tab is not displayed in results page.SearchBox is not displayed next to Liturature Tab.</t>
+  </si>
+  <si>
+    <t>Fail:nullnull</t>
+  </si>
+  <si>
+    <t>Fail:newly entered keyword :acidic should not converted into a pill</t>
+  </si>
+  <si>
+    <t>Fail:New keywords are not entered.hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@127446dc (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57548}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: b465634bca51c9a60e1bd03f368697c5hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@127446dc (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57548}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: b465634bca51c9a60e1bd03f368697c5</t>
+  </si>
+  <si>
+    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3a69593c (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54006}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 889586bf755fddc5f2b8d9c8b9c54464hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3a69593c (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54006}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 889586bf755fddc5f2b8d9c8b9c54464</t>
+  </si>
+  <si>
+    <t>Fail:Search box accepted morethan 2000 characters</t>
+  </si>
+  <si>
+    <t>Fail:Looking Pillbox doesnot exist in result setgetColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
+  (Session info: headless chrome=93.0.4577.63)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5be4a5f6f592b7c8d7d2b3b926035af2
+*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
+  (Session info: headless chrome=93.0.4577.63)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5be4a5f6f592b7c8d7d2b3b926035af2
+*** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (fa18703d5f0e3dd6f46aa28866ab55de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@362d1ce7 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57821}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fa18703d5f0e3dd6f46aa28866ab55dewaitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (fa18703d5f0e3dd6f46aa28866ab55de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@362d1ce7 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57821}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fa18703d5f0e3dd6f46aa28866ab55de</t>
+  </si>
+  <si>
+    <t>Fail:isDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerExceptionisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (e25f55cd55729c81585d60fff1251498)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@488017a4 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e25f55cd55729c81585d60fff1251498waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (e25f55cd55729c81585d60fff1251498)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@488017a4 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e25f55cd55729c81585d60fff1251498</t>
+  </si>
+  <si>
+    <t>Fail:clickOnPillBox is not working..org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: headless chrome=93.0.4577.63)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5c84c7f72128f173ffad7d47d4c57a3aclickOnPillBox is not working..org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: headless chrome=93.0.4577.63)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 5c84c7f72128f173ffad7d47d4c57a3a</t>
+  </si>
+  <si>
+    <t>Fail: java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@47845f69 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 77b9426541fe4ad3bc7257c974b986a1 java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@47845f69 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 77b9426541fe4ad3bc7257c974b986a1</t>
+  </si>
+  <si>
+    <t>Fail:clickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e16ab3e (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58173}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7756071bbfc460fae11187f5a2a0dbdfclickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e16ab3e (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58173}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7756071bbfc460fae11187f5a2a0dbdf</t>
+  </si>
+  <si>
+    <t>Fail:deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="50.98926187481861" x="126.58959537572255" y="69.01073812518139" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1695, 413). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
+  (Session info: headless chrome=93.0.4577.63)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50291}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: cbf7c180b471c0c2015182f9db78a162deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="50.98926187481861" x="126.58959537572255" y="69.01073812518139" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1695, 413). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
+  (Session info: headless chrome=93.0.4577.63)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50291}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: cbf7c180b471c0c2015182f9db78a162</t>
+  </si>
+  <si>
+    <t>Fail:checkbox is not selectedjava.lang.Exception: clickOn filter is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-content']//div[contains(text(),'Publication year')]"}
+  (Session info: headless chrome=93.0.4577.63)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56223}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a1455fa65d2a79024db57f2b5da88e64
+*** Element info: {Using=xpath, value=//span[@class='mat-content']//div[contains(text(),'Publication year')]}checkbox is not selectedjava.lang.Exception: clickOn filter is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-content']//div[contains(text(),'Publication year')]"}
+  (Session info: headless chrome=93.0.4577.63)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56223}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a1455fa65d2a79024db57f2b5da88e64
+*** Element info: {Using=xpath, value=//span[@class='mat-content']//div[contains(text(),'Publication year')]}</t>
+  </si>
+  <si>
+    <t>Fail:setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27f3afde (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61822}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c2b4e9ded61cc45ceab44206710237cdsetTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27f3afde (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61822}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c2b4e9ded61cc45ceab44206710237cd</t>
+  </si>
+  <si>
+    <t>Fail:SMALL SIZE IMAGE IS NOT DISPLAYED IN RSMEDIUM SIZE IMAGE IS NOT DISPLAYED IN RSLARGE SIZE IMAGE IS NOT DISPLAYED IN RS</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@61ea3f67 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 74e21b0aba45c5587fec2b6eca0e9773clickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@61ea3f67 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 74e21b0aba45c5587fec2b6eca0e9773</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@346509dd (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63599}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 65a75ed2c022287d76bb5dcd9a59f9f3clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@346509dd (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63599}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 65a75ed2c022287d76bb5dcd9a59f9f3</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: driver.version: RemoteWebDriverclickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@72b7c29f (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 19573ec23fd3afee5cfff66d2cdba866clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@72b7c29f (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 19573ec23fd3afee5cfff66d2cdba866</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@41cb9225 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52962}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4ada26358cc134f14f3a82b8ffbf2949waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@41cb9225 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52962}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4ada26358cc134f14f3a82b8ffbf2949</t>
+  </si>
+  <si>
+    <t>Fail:getTextImageViewerPaginatorRange is not workingjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div/mat-dialog-content/section/div[2]/div[2]/mat-paginator/div/div/div/div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3bdebf49 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60079}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7f16670eec8d4f5ee2cf798745980c35getTextImageViewerPaginatorRange is not workingjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div/mat-dialog-content/section/div[2]/div[2]/mat-paginator/div/div/div/div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3bdebf49 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60079}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7f16670eec8d4f5ee2cf798745980c35</t>
+  </si>
+  <si>
+    <t>Fail:setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@717e34b5 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55239}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fae33f2de9f91536050b414cb9d5df58setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@717e34b5 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55239}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fae33f2de9f91536050b414cb9d5df58</t>
+  </si>
+  <si>
+    <t>Fail:setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7ba2a1cd (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58068}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 58cb19a0b87afdb4b326c088dd9b29b8setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7ba2a1cd (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58068}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 58cb19a0b87afdb4b326c088dd9b29b8</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1272,14 +1415,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1334,6 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1685,14 +1829,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1723,31 +1867,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="65.88671875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="59" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="255" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="70.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.44140625" style="4" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.28515625" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" style="4" collapsed="1"/>
+    <col min="11" max="11" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.88671875" style="4" collapsed="1"/>
     <col min="14" max="14" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4" collapsed="1"/>
+    <col min="15" max="15" width="27.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1791,10 +1935,10 @@
         <v>220</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1808,22 +1952,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>205</v>
+      <c r="H2" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -1837,22 +1981,22 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>205</v>
+      <c r="H3" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1866,22 +2010,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>205</v>
+      <c r="H4" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -1895,22 +2039,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>205</v>
+      <c r="H5" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1924,22 +2068,22 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>205</v>
+      <c r="H6" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1953,16 +2097,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>205</v>
+      <c r="H7" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>31</v>
@@ -1971,7 +2115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -1985,16 +2129,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>205</v>
+      <c r="H8" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>35</v>
@@ -2003,7 +2147,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -2017,16 +2161,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>205</v>
+      <c r="H9" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>35</v>
@@ -2035,7 +2179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
@@ -2049,22 +2193,22 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>205</v>
+      <c r="H10" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -2078,16 +2222,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>205</v>
+      <c r="H11" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
@@ -2096,7 +2240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2110,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>205</v>
+      <c r="H12" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
@@ -2128,7 +2272,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -2142,16 +2286,16 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>205</v>
+      <c r="H13" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
@@ -2160,7 +2304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
@@ -2174,16 +2318,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>205</v>
+      <c r="H14" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
@@ -2192,7 +2336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -2206,16 +2350,16 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>205</v>
+      <c r="H15" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>35</v>
@@ -2224,7 +2368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
@@ -2238,23 +2382,23 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>205</v>
+      <c r="H16" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>218</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>98</v>
       </c>
@@ -2268,10 +2412,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>199</v>
@@ -2285,7 +2429,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>99</v>
       </c>
@@ -2299,7 +2443,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
@@ -2315,7 +2459,7 @@
       </c>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -2329,10 +2473,10 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>199</v>
@@ -2346,7 +2490,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
@@ -2360,7 +2504,7 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
@@ -2377,7 +2521,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>102</v>
       </c>
@@ -2391,7 +2535,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
@@ -2413,7 +2557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>105</v>
       </c>
@@ -2427,10 +2571,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>199</v>
@@ -2444,7 +2588,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>107</v>
       </c>
@@ -2458,10 +2602,10 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>199</v>
@@ -2475,7 +2619,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>108</v>
       </c>
@@ -2489,7 +2633,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
@@ -2503,7 +2647,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>109</v>
       </c>
@@ -2517,7 +2661,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
@@ -2534,7 +2678,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>110</v>
       </c>
@@ -2548,7 +2692,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
@@ -2565,7 +2709,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>111</v>
       </c>
@@ -2579,7 +2723,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
@@ -2598,7 +2742,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
@@ -2612,10 +2756,10 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>199</v>
@@ -2627,7 +2771,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>116</v>
       </c>
@@ -2641,7 +2785,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
@@ -2656,7 +2800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>119</v>
       </c>
@@ -2670,7 +2814,7 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
@@ -2685,7 +2829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
@@ -2699,10 +2843,10 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>199</v>
@@ -2714,7 +2858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>125</v>
       </c>
@@ -2728,10 +2872,10 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>199</v>
@@ -2743,7 +2887,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>127</v>
       </c>
@@ -2757,7 +2901,7 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
@@ -2772,7 +2916,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
@@ -2786,7 +2930,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
@@ -2801,7 +2945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
@@ -2815,7 +2959,7 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
@@ -2830,7 +2974,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>135</v>
       </c>
@@ -2844,7 +2988,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
@@ -2860,7 +3004,7 @@
       </c>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>137</v>
       </c>
@@ -2874,7 +3018,7 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
@@ -2890,7 +3034,7 @@
       </c>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>140</v>
       </c>
@@ -2904,7 +3048,7 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
@@ -2920,7 +3064,7 @@
       </c>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>143</v>
       </c>
@@ -2934,7 +3078,7 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
@@ -2950,7 +3094,7 @@
       </c>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>146</v>
       </c>
@@ -2964,7 +3108,7 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
@@ -2980,7 +3124,7 @@
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>149</v>
       </c>
@@ -2994,7 +3138,7 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
@@ -3009,7 +3153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
@@ -3023,7 +3167,7 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
@@ -3038,7 +3182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>167</v>
       </c>
@@ -3052,22 +3196,22 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>205</v>
+      <c r="H43" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>168</v>
       </c>
@@ -3081,22 +3225,22 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>205</v>
+      <c r="H44" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>169</v>
       </c>
@@ -3110,22 +3254,22 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>205</v>
+      <c r="H45" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>170</v>
       </c>
@@ -3142,7 +3286,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>204</v>
@@ -3154,7 +3298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>171</v>
       </c>
@@ -3168,7 +3312,7 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>176</v>
@@ -3176,14 +3320,14 @@
       <c r="G47" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H47" s="18" t="s">
-        <v>205</v>
+      <c r="H47" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -3197,22 +3341,22 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>205</v>
+      <c r="H48" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>191</v>
       </c>
@@ -3226,22 +3370,22 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>205</v>
+      <c r="H49" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>192</v>
       </c>
@@ -3255,23 +3399,23 @@
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>205</v>
+      <c r="H50" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="25"/>
     </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>193</v>
       </c>
@@ -3285,10 +3429,10 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>199</v>
@@ -3304,7 +3448,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>194</v>
       </c>
@@ -3318,7 +3462,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
@@ -3333,7 +3477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>195</v>
       </c>
@@ -3347,10 +3491,10 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>199</v>
@@ -3362,7 +3506,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>215</v>
       </c>
@@ -3376,10 +3520,10 @@
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>199</v>
@@ -3392,7 +3536,7 @@
       </c>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
         <v>216</v>
       </c>
@@ -3406,7 +3550,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>176</v>
@@ -3422,7 +3566,7 @@
       </c>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
         <v>210</v>
       </c>
@@ -3436,23 +3580,23 @@
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>243</v>
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="22" t="s">
-        <v>205</v>
+      <c r="H56" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>214</v>
       </c>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>211</v>
       </c>
@@ -3466,23 +3610,23 @@
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>244</v>
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>297</v>
       </c>
       <c r="G57" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="22" t="s">
-        <v>205</v>
+      <c r="H57" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
         <v>212</v>
       </c>
@@ -3496,37 +3640,37 @@
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>244</v>
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>298</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H58" s="22" t="s">
-        <v>205</v>
+      <c r="H58" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>176</v>
@@ -3534,95 +3678,95 @@
       <c r="G59" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H59" s="22" t="s">
-        <v>205</v>
+      <c r="H59" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="22" t="s">
-        <v>205</v>
+      <c r="H60" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="G61" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="22" t="s">
-        <v>205</v>
+      <c r="H61" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="N61" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>269</v>
-      </c>
       <c r="B62" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>176</v>
@@ -3637,27 +3781,27 @@
         <v>20</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>176</v>
@@ -3669,27 +3813,27 @@
         <v>219</v>
       </c>
       <c r="N63" s="28" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>176</v>
@@ -3704,24 +3848,24 @@
         <v>20</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>176</v>
@@ -3736,27 +3880,27 @@
         <v>20</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>176</v>
@@ -3764,28 +3908,28 @@
       <c r="G66" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H66" s="22" t="s">
-        <v>205</v>
+      <c r="H66" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>176</v>
@@ -3793,86 +3937,86 @@
       <c r="G67" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H67" s="22" t="s">
-        <v>205</v>
+      <c r="H67" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="G68" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H68" s="22" t="s">
-        <v>205</v>
+      <c r="H68" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="H69" s="22" t="s">
-        <v>205</v>
+      <c r="H69" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>23</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>3</v>
@@ -3890,7 +4034,7 @@
         <v>115</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3911,40 +4055,33 @@
     <hyperlink ref="G41" r:id="rId12" xr:uid="{F030BE8B-BC36-49E1-8D71-1478C5C4BCDF}"/>
     <hyperlink ref="G42" r:id="rId13" xr:uid="{23135E44-8E96-4D83-A082-A7511C1C0771}"/>
     <hyperlink ref="G43" r:id="rId14" xr:uid="{0CCCEC04-DDD0-4D0F-8D23-C47F6F6CEC53}"/>
-    <hyperlink ref="H43" r:id="rId15" xr:uid="{D41C1E47-89D1-498E-802F-F4AA544A235B}"/>
-    <hyperlink ref="G44" r:id="rId16" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
-    <hyperlink ref="G45" r:id="rId17" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
-    <hyperlink ref="G46" r:id="rId18" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
-    <hyperlink ref="G47" r:id="rId19" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
-    <hyperlink ref="G48" r:id="rId20" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
-    <hyperlink ref="G49" r:id="rId21" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
-    <hyperlink ref="G50" r:id="rId22" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
-    <hyperlink ref="H44" r:id="rId23" xr:uid="{57BA88B1-4374-4605-B1CF-000FB7A9AD17}"/>
-    <hyperlink ref="H45" r:id="rId24" xr:uid="{1020C407-DE4D-45CD-B802-7B6DA3235B83}"/>
-    <hyperlink ref="H46" r:id="rId25" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
-    <hyperlink ref="H47" r:id="rId26" xr:uid="{A2EA3677-590B-439E-B26B-BBB5D057F411}"/>
-    <hyperlink ref="H48" r:id="rId27" xr:uid="{E55440CE-A9F7-403D-B428-B5518F503072}"/>
-    <hyperlink ref="H49" r:id="rId28" xr:uid="{A922F6B7-45E9-4EC5-85E8-E946899CA468}"/>
-    <hyperlink ref="H50" r:id="rId29" xr:uid="{0AF8DC04-D1CF-4807-A710-B373CBBE5749}"/>
-    <hyperlink ref="G51" r:id="rId30" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
-    <hyperlink ref="G52" r:id="rId31" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
-    <hyperlink ref="G53" r:id="rId32" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
-    <hyperlink ref="G54" r:id="rId33" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
-    <hyperlink ref="G55" r:id="rId34" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
-    <hyperlink ref="H18:H42" r:id="rId35" display="Test@123" xr:uid="{428C5C26-7283-4267-926D-F8A15A909940}"/>
-    <hyperlink ref="H51:H55" r:id="rId36" display="Test@123" xr:uid="{1F19B917-4AC7-4318-9D2C-B3B3447CBA4E}"/>
-    <hyperlink ref="G62" r:id="rId37" xr:uid="{C837631E-D83F-4CAB-B7EF-359AC0B72C2C}"/>
-    <hyperlink ref="G63" r:id="rId38" xr:uid="{B216E578-99F7-4539-95BC-CEAE985CF4A1}"/>
-    <hyperlink ref="G64" r:id="rId39" xr:uid="{1E1ADCC4-95BC-4AF8-9AB3-7EE388B85F1D}"/>
-    <hyperlink ref="G65" r:id="rId40" xr:uid="{C0E8DCD0-B5EB-40AA-B3E2-20F3244F6E65}"/>
-    <hyperlink ref="H62" r:id="rId41" xr:uid="{111BCB90-F2D5-450B-B749-7249F56DBF39}"/>
-    <hyperlink ref="H63" r:id="rId42" xr:uid="{29167A98-D6C2-4F18-BA83-7020E938AB86}"/>
-    <hyperlink ref="H64" r:id="rId43" xr:uid="{B0A91A7F-96A4-477C-9A31-4C51B69E3C70}"/>
-    <hyperlink ref="H65" r:id="rId44" xr:uid="{6DA28F36-CB17-4142-B2C8-A1F53BE08003}"/>
-    <hyperlink ref="G70" r:id="rId45" xr:uid="{6303DB8D-1B7E-4608-812E-AB683479C51C}"/>
-    <hyperlink ref="H70" r:id="rId46" xr:uid="{3EC9ABF3-377B-46E8-8585-FD35C630B6C3}"/>
+    <hyperlink ref="G44" r:id="rId15" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
+    <hyperlink ref="G45" r:id="rId16" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
+    <hyperlink ref="G46" r:id="rId17" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
+    <hyperlink ref="G47" r:id="rId18" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
+    <hyperlink ref="G48" r:id="rId19" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
+    <hyperlink ref="G49" r:id="rId20" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
+    <hyperlink ref="G50" r:id="rId21" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
+    <hyperlink ref="H46" r:id="rId22" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
+    <hyperlink ref="G51" r:id="rId23" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
+    <hyperlink ref="G52" r:id="rId24" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
+    <hyperlink ref="G53" r:id="rId25" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
+    <hyperlink ref="G54" r:id="rId26" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
+    <hyperlink ref="G55" r:id="rId27" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
+    <hyperlink ref="H18:H42" r:id="rId28" display="Test@123" xr:uid="{428C5C26-7283-4267-926D-F8A15A909940}"/>
+    <hyperlink ref="H51:H55" r:id="rId29" display="Test@123" xr:uid="{1F19B917-4AC7-4318-9D2C-B3B3447CBA4E}"/>
+    <hyperlink ref="G62" r:id="rId30" xr:uid="{C837631E-D83F-4CAB-B7EF-359AC0B72C2C}"/>
+    <hyperlink ref="G63" r:id="rId31" xr:uid="{B216E578-99F7-4539-95BC-CEAE985CF4A1}"/>
+    <hyperlink ref="G64" r:id="rId32" xr:uid="{1E1ADCC4-95BC-4AF8-9AB3-7EE388B85F1D}"/>
+    <hyperlink ref="G65" r:id="rId33" xr:uid="{C0E8DCD0-B5EB-40AA-B3E2-20F3244F6E65}"/>
+    <hyperlink ref="H62" r:id="rId34" xr:uid="{111BCB90-F2D5-450B-B749-7249F56DBF39}"/>
+    <hyperlink ref="H63" r:id="rId35" xr:uid="{29167A98-D6C2-4F18-BA83-7020E938AB86}"/>
+    <hyperlink ref="H64" r:id="rId36" xr:uid="{B0A91A7F-96A4-477C-9A31-4C51B69E3C70}"/>
+    <hyperlink ref="H65" r:id="rId37" xr:uid="{6DA28F36-CB17-4142-B2C8-A1F53BE08003}"/>
+    <hyperlink ref="G70" r:id="rId38" xr:uid="{6303DB8D-1B7E-4608-812E-AB683479C51C}"/>
+    <hyperlink ref="H70" r:id="rId39" xr:uid="{3EC9ABF3-377B-46E8-8585-FD35C630B6C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD4775-2C07-48C3-B9F9-E117BE971738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CCCA9-1B19-4DB0-881B-A46315491FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="307">
   <si>
     <t>TSID</t>
   </si>
@@ -957,61 +957,51 @@
     <t>Derwent@12345</t>
   </si>
   <si>
-    <t>Fail:isDisabledSearchIcon is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[1]/div[3]/button[2]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@109ab414 (tried for 50 second(s) with 500 milliseconds interval)
+    <t>Fail:clickOnThumbsUpIcon is not workingjava.lang.NullPointerExceptionclickOnThumbsUpIcon is not workingjava.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:Title Field is not displayed for given row in Literature results page.Title is not displayed for given row in Patent results page.Patent tab is not displayed in results page.Literature tab is not displayed in results page.SearchBox is not displayed next to Liturature Tab.</t>
+  </si>
+  <si>
+    <t>Fail:nullnull</t>
+  </si>
+  <si>
+    <t>Fail:Search box accepted morethan 2000 characters</t>
+  </si>
+  <si>
+    <t>Fail:SMALL SIZE IMAGE IS NOT DISPLAYED IN RSMEDIUM SIZE IMAGE IS NOT DISPLAYED IN RSLARGE SIZE IMAGE IS NOT DISPLAYED IN RS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fail:newly entered keyword :acidic should not converted into a pillResult set isnot get refreshed with new keyword</t>
+  </si>
+  <si>
+    <t>Fail:New keywords are not entered.hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@184be21a (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57008}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fdbe747cfb6309788ca62290cbddcddcisDisabledSearchIcon is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[1]/div[3]/button[2]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@109ab414 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:65424}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 3c49f8594f985885d0bd9eafd548348fhoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@184be21a (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57008}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fdbe747cfb6309788ca62290cbddcddc</t>
-  </si>
-  <si>
-    <t>Fail:click on Button Tab Insights is not working for :: java.lang.NullPointerExceptionclick on Button Tab Insights is not working for :: java.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>Fail:clickOnThumbsUpIcon is not workingjava.lang.NullPointerExceptionclickOnThumbsUpIcon is not workingjava.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>Fail:Title Field is not displayed for given row in Literature results page.Title is not displayed for given row in Patent results page.Patent tab is not displayed in results page.Literature tab is not displayed in results page.SearchBox is not displayed next to Liturature Tab.</t>
-  </si>
-  <si>
-    <t>Fail:nullnull</t>
-  </si>
-  <si>
-    <t>Fail:newly entered keyword :acidic should not converted into a pill</t>
-  </si>
-  <si>
-    <t>Fail:New keywords are not entered.hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@127446dc (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:65424}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 3c49f8594f985885d0bd9eafd548348f</t>
+  </si>
+  <si>
+    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7e56c5c (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57548}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: b465634bca51c9a60e1bd03f368697c5hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@127446dc (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53089}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 23c9e315f614ff5c0f5c5359756da5f1hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7e56c5c (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57548}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: b465634bca51c9a60e1bd03f368697c5</t>
-  </si>
-  <si>
-    <t>Fail:hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3a69593c (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54006}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 889586bf755fddc5f2b8d9c8b9c54464hoverOnPhraseSection is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3a69593c (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54006}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 889586bf755fddc5f2b8d9c8b9c54464</t>
-  </si>
-  <si>
-    <t>Fail:Search box accepted morethan 2000 characters</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53089}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 23c9e315f614ff5c0f5c5359756da5f1</t>
   </si>
   <si>
     <t>Fail:Looking Pillbox doesnot exist in result setgetColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
@@ -1020,46 +1010,46 @@
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5be4a5f6f592b7c8d7d2b3b926035af2
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49694}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a9308dd5ffe76514a8dba49f9aa53ab7
 *** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}getColorOfPillBox is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]"}
   (Session info: headless chrome=93.0.4577.63)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53816}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5be4a5f6f592b7c8d7d2b3b926035af2
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49694}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a9308dd5ffe76514a8dba49f9aa53ab7
 *** Element info: {Using=xpath, value=(//mat-chip[contains(@class,'mat-chip mat-primary mat-standard-chip')])[1]}</t>
   </si>
   <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (fa18703d5f0e3dd6f46aa28866ab55de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@362d1ce7 (tried for 50 second(s) with 500 milliseconds interval)
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (ce92e637393d96104a9241a4c32bb011)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2d7e304a (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57821}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fa18703d5f0e3dd6f46aa28866ab55dewaitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (fa18703d5f0e3dd6f46aa28866ab55de)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@362d1ce7 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62965}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ce92e637393d96104a9241a4c32bb011waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (ce92e637393d96104a9241a4c32bb011)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2d7e304a (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57821}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fa18703d5f0e3dd6f46aa28866ab55de</t>
-  </si>
-  <si>
-    <t>Fail:isDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerExceptionisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerException</t>
-  </si>
-  <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (e25f55cd55729c81585d60fff1251498)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@488017a4 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62965}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ce92e637393d96104a9241a4c32bb011</t>
+  </si>
+  <si>
+    <t>Fail:Result set is not get refreshed with new searchisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerExceptionisDisplayedButtonThumsDownWithFillColor is not working..java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (762d5b41b465111960aab0415b97e673)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@616aa883 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e25f55cd55729c81585d60fff1251498waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (e25f55cd55729c81585d60fff1251498)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@488017a4 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55595}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 762d5b41b465111960aab0415b97e673waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (762d5b41b465111960aab0415b97e673)] -&gt; xpath: (//span[@class='cdx-chip-name'])[1]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@616aa883 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:49676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e25f55cd55729c81585d60fff1251498</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55595}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 762d5b41b465111960aab0415b97e673</t>
   </si>
   <si>
     <t>Fail:clickOnPillBox is not working..org.openqa.selenium.ElementNotInteractableException: element not interactable
@@ -1067,40 +1057,40 @@
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5c84c7f72128f173ffad7d47d4c57a3aclickOnPillBox is not working..org.openqa.selenium.ElementNotInteractableException: element not interactable
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50492}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 219d13d7ce975b7bc2044fa4329895ccclickOnPillBox is not working..org.openqa.selenium.ElementNotInteractableException: element not interactable
   (Session info: headless chrome=93.0.4577.63)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5c84c7f72128f173ffad7d47d4c57a3a</t>
-  </si>
-  <si>
-    <t>Fail: java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@47845f69 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50492}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 219d13d7ce975b7bc2044fa4329895cc</t>
+  </si>
+  <si>
+    <t>Fail: java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@104b49e0 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 77b9426541fe4ad3bc7257c974b986a1 java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@47845f69 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53236}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 491cd7d607374905ad4b467b5144cd35 java.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //body[contains(text(),'PDF is not available')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@104b49e0 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53676}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 77b9426541fe4ad3bc7257c974b986a1</t>
-  </si>
-  <si>
-    <t>Fail:clickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e16ab3e (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53236}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 491cd7d607374905ad4b467b5144cd35</t>
+  </si>
+  <si>
+    <t>Fail:clickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2f667c7b (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58173}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7756071bbfc460fae11187f5a2a0dbdfclickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e16ab3e (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56804}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 87703db48a3eaf37357a20f4eb385dabclickOnSupportLink is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: div.links &gt; button:nth-child(5) &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2f667c7b (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58173}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7756071bbfc460fae11187f5a2a0dbdf</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56804}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 87703db48a3eaf37357a20f4eb385dab</t>
   </si>
   <si>
     <t>Fail:deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="50.98926187481861" x="126.58959537572255" y="69.01073812518139" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1695, 413). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
@@ -1108,14 +1098,14 @@
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50291}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: cbf7c180b471c0c2015182f9db78a162deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="50.98926187481861" x="126.58959537572255" y="69.01073812518139" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1695, 413). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63395}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 3bbca2dfb9bd114db6beebad99cc384adeSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;rect width="12.138728323699421" height="50.98926187481861" x="126.58959537572255" y="69.01073812518139" id="publ_year_rect_2007" class="rect-selected" style="fill: rgb(0, 60, 143);"&gt;&lt;/rect&gt; is not clickable at point (1695, 413). Other element would receive the click: &lt;line stroke="currentColor" x2="-300"&gt;&lt;/line&gt;
   (Session info: headless chrome=93.0.4577.63)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50291}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: cbf7c180b471c0c2015182f9db78a162</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63395}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 3bbca2dfb9bd114db6beebad99cc384a</t>
   </si>
   <si>
     <t>Fail:checkbox is not selectedjava.lang.Exception: clickOn filter is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-content']//div[contains(text(),'Publication year')]"}
@@ -1124,133 +1114,99 @@
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56223}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a1455fa65d2a79024db57f2b5da88e64
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56746}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 99ea0994bd2094813fd0191d790af2a5
 *** Element info: {Using=xpath, value=//span[@class='mat-content']//div[contains(text(),'Publication year')]}checkbox is not selectedjava.lang.Exception: clickOn filter is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-content']//div[contains(text(),'Publication year')]"}
   (Session info: headless chrome=93.0.4577.63)
 For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56223}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a1455fa65d2a79024db57f2b5da88e64
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56746}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 99ea0994bd2094813fd0191d790af2a5
 *** Element info: {Using=xpath, value=//span[@class='mat-content']//div[contains(text(),'Publication year')]}</t>
   </si>
   <si>
-    <t>Fail:setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27f3afde (tried for 50 second(s) with 500 milliseconds interval)
+    <t>Fail:setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@a8be31e (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61822}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c2b4e9ded61cc45ceab44206710237cdsetTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@27f3afde (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52093}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 25191c37b3b4da6f60ea6c0a74dc6ac7setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@a8be31e (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61822}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c2b4e9ded61cc45ceab44206710237cd</t>
-  </si>
-  <si>
-    <t>Fail:SMALL SIZE IMAGE IS NOT DISPLAYED IN RSMEDIUM SIZE IMAGE IS NOT DISPLAYED IN RSLARGE SIZE IMAGE IS NOT DISPLAYED IN RS</t>
-  </si>
-  <si>
-    <t>Fail:clickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@61ea3f67 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52093}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 25191c37b3b4da6f60ea6c0a74dc6ac7</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1db2e6ec (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 74e21b0aba45c5587fec2b6eca0e9773clickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@61ea3f67 (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62494}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a99599a7c83212a1f30010d71cbb314fclickOnLinkAssignee is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section &gt; app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; div:nth-child(1) &gt; section.assignee.ng-star-inserted &gt; p &gt; span &gt; span &gt; a' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1db2e6ec (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58596}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 74e21b0aba45c5587fec2b6eca0e9773</t>
-  </si>
-  <si>
-    <t>Fail:clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@346509dd (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62494}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a99599a7c83212a1f30010d71cbb314f</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3ab000a9 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63599}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 65a75ed2c022287d76bb5dcd9a59f9f3clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@346509dd (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c53e1c2b25197039ff6375c6af5aa8d8clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: app-result-set:nth-child(1) &gt; section &gt; mat-card &gt; mat-card-content &gt; section:nth-child(3) &gt; div &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3ab000a9 (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63599}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 65a75ed2c022287d76bb5dcd9a59f9f3</t>
-  </si>
-  <si>
-    <t>Fail:clickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: driver.version: RemoteWebDriverclickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: driver.version: RemoteWebDriver</t>
-  </si>
-  <si>
-    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@72b7c29f (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c53e1c2b25197039ff6375c6af5aa8d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail:CLEAR ALL ICON (X)IS DISPLAYED </t>
+  </si>
+  <si>
+    <t>Fail:isDisabledImageViewerNextPageArrow is not workingjava.lang.NullPointerExceptionisDisabledImageViewerNextPageArrow is not workingjava.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>Fail:setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2f78fd0e (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 19573ec23fd3afee5cfff66d2cdba866clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@72b7c29f (tried for 50 second(s) with 500 milliseconds interval)
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54283}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 01a1cc1c4d5c18f8bdd21c519f5a0218setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2f78fd0e (tried for 50 second(s) with 500 milliseconds interval)
 Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
 System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63523}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 19573ec23fd3afee5cfff66d2cdba866</t>
-  </si>
-  <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@41cb9225 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52962}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 4ada26358cc134f14f3a82b8ffbf2949waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@ng-reflect-maxlength='2000']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@41cb9225 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52962}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 4ada26358cc134f14f3a82b8ffbf2949</t>
-  </si>
-  <si>
-    <t>Fail:getTextImageViewerPaginatorRange is not workingjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div/mat-dialog-content/section/div[2]/div[2]/mat-paginator/div/div/div/div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3bdebf49 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60079}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7f16670eec8d4f5ee2cf798745980c35getTextImageViewerPaginatorRange is not workingjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div/mat-dialog-content/section/div[2]/div[2]/mat-paginator/div/div/div/div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@3bdebf49 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60079}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 7f16670eec8d4f5ee2cf798745980c35</t>
-  </si>
-  <si>
-    <t>Fail:setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@717e34b5 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55239}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fae33f2de9f91536050b414cb9d5df58setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@717e34b5 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55239}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fae33f2de9f91536050b414cb9d5df58</t>
-  </si>
-  <si>
-    <t>Fail:setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7ba2a1cd (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58068}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 58cb19a0b87afdb4b326c088dd9b29b8setTextPersonOrOrganization is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //input[contains(@placeholder,'Enter name')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@7ba2a1cd (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.15 (660fc11082ba5..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58068}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 58cb19a0b87afdb4b326c088dd9b29b8</t>
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 93.0.4577.63, chrome: {chromedriverVersion: 93.0.4577.63 (ff5c0da2ec0ad..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:54283}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 01a1cc1c4d5c18f8bdd21c519f5a0218</t>
+  </si>
+  <si>
+    <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //section[3]/form/section[1]/mat-form-field/div/div[1]/div[3]/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //section[3]/form/section[1]/mat-form-field/div/div[1]/div[3]/input' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //section[3]/form/section[1]/mat-form-field/div/div[1]/div[3]/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //section[3]/form/section[1]/mat-form-field/div/div[1]/div[3]/input' (tried for 50 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Fail:User can not see 10 records per pageUser can not see 20 records per pageUser can not see 100 records per page</t>
+  </si>
+  <si>
+    <t>Validate annotation in RS and Saved Records Page</t>
+  </si>
+  <si>
+    <t>vaildateAnnotationResultSetAndSavedRecord</t>
+  </si>
+  <si>
+    <t>Validate annotation in Saved Folder and Saved Records Page</t>
+  </si>
+  <si>
+    <t>vaildateAnnotationSavedFolderAndSavedRecord</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1665</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1664</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,14 +1287,6 @@
       <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -1378,7 +1326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1401,28 +1349,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1451,40 +1387,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{AA68FCC1-0F32-4B18-9A9A-444BEC9A472A}"/>
     <cellStyle name="Comma 2 2 2" xfId="5" xr:uid="{1A7BAE10-D655-46A3-884E-7A3BE33A8E6A}"/>
     <cellStyle name="Comma 2 3" xfId="4" xr:uid="{02E4C50F-082B-4B45-BB33-E0B251D59FE1}"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
@@ -1865,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,13 +1855,13 @@
       <c r="L1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="15" t="s">
         <v>247</v>
       </c>
     </row>
@@ -1952,15 +1879,15 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1981,15 +1908,15 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2010,15 +1937,15 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -2039,18 +1966,18 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2068,15 +1995,15 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2097,15 +2024,15 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>280</v>
+        <v>280</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2129,15 +2056,15 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -2161,15 +2088,15 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -2193,15 +2120,15 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -2222,15 +2149,15 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>284</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -2254,15 +2181,15 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -2286,15 +2213,15 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -2318,15 +2245,15 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I14" s="5" t="s">
@@ -2350,15 +2277,15 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>288</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -2382,18 +2309,18 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="22" t="s">
         <v>218</v>
       </c>
       <c r="K16" s="2"/>
@@ -2412,15 +2339,15 @@
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -2443,15 +2370,15 @@
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -2473,15 +2400,15 @@
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -2504,15 +2431,15 @@
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -2535,15 +2462,15 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2571,15 +2498,15 @@
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -2602,22 +2529,22 @@
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
@@ -2633,15 +2560,15 @@
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="20" t="s">
         <v>219</v>
       </c>
       <c r="J24" s="11"/>
@@ -2661,15 +2588,15 @@
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -2692,15 +2619,15 @@
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -2723,15 +2650,15 @@
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -2756,15 +2683,15 @@
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -2785,15 +2712,15 @@
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -2814,15 +2741,15 @@
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -2843,15 +2770,15 @@
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2872,15 +2799,15 @@
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -2901,15 +2828,15 @@
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -2930,15 +2857,15 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -2959,15 +2886,15 @@
         <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -2988,15 +2915,15 @@
         <v>136</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -3018,15 +2945,15 @@
         <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I37" s="12" t="s">
@@ -3048,15 +2975,15 @@
         <v>142</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I38" s="12" t="s">
@@ -3078,15 +3005,15 @@
         <v>145</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I39" s="12" t="s">
@@ -3108,15 +3035,15 @@
         <v>148</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -3138,15 +3065,15 @@
         <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -3167,15 +3094,15 @@
         <v>154</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I42" s="12" t="s">
@@ -3196,15 +3123,15 @@
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -3225,15 +3152,15 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -3254,15 +3181,15 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -3283,15 +3210,15 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="20" t="s">
         <v>205</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -3312,15 +3239,15 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -3341,15 +3268,15 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>294</v>
-      </c>
-      <c r="G48" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -3370,50 +3297,50 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+    <row r="50" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="C50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="25"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
@@ -3429,22 +3356,22 @@
         <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="13"/>
-      <c r="M51" s="16" t="s">
+      <c r="M51" s="23" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3462,15 +3389,15 @@
         <v>187</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I52" s="12" t="s">
@@ -3491,194 +3418,194 @@
         <v>189</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="22" t="s">
+      <c r="C54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>198</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="22" t="s">
+      <c r="C55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>201</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="25"/>
-    </row>
-    <row r="56" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="C56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>203</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H56" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="J56" s="25"/>
-    </row>
-    <row r="57" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>297</v>
-      </c>
-      <c r="G57" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="22" t="s">
+      <c r="I57" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="25"/>
-    </row>
-    <row r="58" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="22" t="s">
+      <c r="C58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>209</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J58" s="25"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="22" t="s">
+      <c r="C59" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>232</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H59" s="10" t="s">
         <v>274</v>
       </c>
       <c r="N59" s="4" t="s">
@@ -3686,28 +3613,28 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="17" t="s">
         <v>234</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="22" t="s">
+      <c r="C60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="18" t="s">
         <v>236</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G60" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H60" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -3721,28 +3648,28 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>241</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G61" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="10" t="s">
         <v>274</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -3753,28 +3680,28 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>248</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -3788,60 +3715,60 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="17" t="s">
         <v>254</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="N63" s="28" t="s">
+      <c r="N63" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -3852,28 +3779,28 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -3887,118 +3814,118 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H66" s="30" t="s">
+      <c r="H66" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>267</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H67" s="30" t="s">
+      <c r="H67" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I67" s="22" t="s">
+      <c r="I67" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="17" t="s">
         <v>268</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="17" t="s">
         <v>271</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>273</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G69" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I69" s="22" t="s">
+      <c r="I69" s="18" t="s">
         <v>23</v>
       </c>
       <c r="N69" s="4" t="s">
@@ -4006,82 +3933,98 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="I70" s="18" t="s">
         <v>115</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M70" xr:uid="{EB08446A-0716-488E-B42E-00D2DA842126}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" xr:uid="{723970F4-4603-469C-B45C-96036D0B804A}"/>
-    <hyperlink ref="H17" r:id="rId2" xr:uid="{2AD4D63B-2996-4EF0-8A2F-8AF5B6BD9CC8}"/>
-    <hyperlink ref="G18:G33" r:id="rId3" display="rashmi.rl@thomsonreuters.com" xr:uid="{3DB5E2C0-A750-4358-9BF6-32D3D98D2096}"/>
-    <hyperlink ref="G33" r:id="rId4" xr:uid="{17A7C8C6-2597-4D73-A91A-12BAC045FE55}"/>
-    <hyperlink ref="G34" r:id="rId5" xr:uid="{5B70CB00-7AFC-441C-8B21-F20FFAC5C9AF}"/>
-    <hyperlink ref="G35" r:id="rId6" xr:uid="{52261ED4-7225-4B8F-970A-9E1807022FE1}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{501C3C63-1543-43E6-8460-64278CEC18A9}"/>
-    <hyperlink ref="G37" r:id="rId8" xr:uid="{CDA235E6-241E-4DCC-ACAE-541EAE638029}"/>
-    <hyperlink ref="G38" r:id="rId9" xr:uid="{2CC833FE-2CFA-4F55-A03C-0F6D36B8FF1A}"/>
-    <hyperlink ref="G39" r:id="rId10" xr:uid="{7CB5209A-D384-479E-ABBE-818E4A32E00E}"/>
-    <hyperlink ref="G40" r:id="rId11" xr:uid="{8398B387-7BC7-498B-9AA4-042A87D3A4DB}"/>
-    <hyperlink ref="G41" r:id="rId12" xr:uid="{F030BE8B-BC36-49E1-8D71-1478C5C4BCDF}"/>
-    <hyperlink ref="G42" r:id="rId13" xr:uid="{23135E44-8E96-4D83-A082-A7511C1C0771}"/>
-    <hyperlink ref="G43" r:id="rId14" xr:uid="{0CCCEC04-DDD0-4D0F-8D23-C47F6F6CEC53}"/>
-    <hyperlink ref="G44" r:id="rId15" xr:uid="{D466216C-1EF1-4553-A660-7BF606C27DB9}"/>
-    <hyperlink ref="G45" r:id="rId16" xr:uid="{F86289C3-3FA2-4BA4-AEDD-552CD06D34E6}"/>
-    <hyperlink ref="G46" r:id="rId17" xr:uid="{0DE6A34B-2C8E-4613-99BD-7169693A3191}"/>
-    <hyperlink ref="G47" r:id="rId18" xr:uid="{0E6F7DF1-DD17-41D2-B68A-807CE6F4A387}"/>
-    <hyperlink ref="G48" r:id="rId19" xr:uid="{111B4475-977A-49B9-9657-CCB615DEF79F}"/>
-    <hyperlink ref="G49" r:id="rId20" xr:uid="{471A5D33-835A-414E-97B8-362512B11F19}"/>
-    <hyperlink ref="G50" r:id="rId21" xr:uid="{C7E5B850-A6A3-47EB-B6C2-A656ABE578C3}"/>
-    <hyperlink ref="H46" r:id="rId22" xr:uid="{4A959DA8-94AE-478F-AA59-3FF5B726B06D}"/>
-    <hyperlink ref="G51" r:id="rId23" xr:uid="{4930390E-877B-48E6-806D-25B7F1D8C5B8}"/>
-    <hyperlink ref="G52" r:id="rId24" xr:uid="{F7B5D713-A9B5-4133-BD07-98197D7E72D4}"/>
-    <hyperlink ref="G53" r:id="rId25" xr:uid="{E5AB4738-A96D-4977-A386-A581CA3C01E6}"/>
-    <hyperlink ref="G54" r:id="rId26" xr:uid="{DE1E9284-2F49-42F1-A7C3-B0CEC31B6EFD}"/>
-    <hyperlink ref="G55" r:id="rId27" xr:uid="{E2B9685A-2447-4FE1-AF1B-C87EA1440D7B}"/>
-    <hyperlink ref="H18:H42" r:id="rId28" display="Test@123" xr:uid="{428C5C26-7283-4267-926D-F8A15A909940}"/>
-    <hyperlink ref="H51:H55" r:id="rId29" display="Test@123" xr:uid="{1F19B917-4AC7-4318-9D2C-B3B3447CBA4E}"/>
-    <hyperlink ref="G62" r:id="rId30" xr:uid="{C837631E-D83F-4CAB-B7EF-359AC0B72C2C}"/>
-    <hyperlink ref="G63" r:id="rId31" xr:uid="{B216E578-99F7-4539-95BC-CEAE985CF4A1}"/>
-    <hyperlink ref="G64" r:id="rId32" xr:uid="{1E1ADCC4-95BC-4AF8-9AB3-7EE388B85F1D}"/>
-    <hyperlink ref="G65" r:id="rId33" xr:uid="{C0E8DCD0-B5EB-40AA-B3E2-20F3244F6E65}"/>
-    <hyperlink ref="H62" r:id="rId34" xr:uid="{111BCB90-F2D5-450B-B749-7249F56DBF39}"/>
-    <hyperlink ref="H63" r:id="rId35" xr:uid="{29167A98-D6C2-4F18-BA83-7020E938AB86}"/>
-    <hyperlink ref="H64" r:id="rId36" xr:uid="{B0A91A7F-96A4-477C-9A31-4C51B69E3C70}"/>
-    <hyperlink ref="H65" r:id="rId37" xr:uid="{6DA28F36-CB17-4142-B2C8-A1F53BE08003}"/>
-    <hyperlink ref="G70" r:id="rId38" xr:uid="{6303DB8D-1B7E-4608-812E-AB683479C51C}"/>
-    <hyperlink ref="H70" r:id="rId39" xr:uid="{3EC9ABF3-377B-46E8-8585-FD35C630B6C3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45CCCA9-1B19-4DB0-881B-A46315491FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A045D-14CA-4C91-BDDB-DC89E7701876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$M$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$G$1:$G$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="313">
   <si>
     <t>TSID</t>
   </si>
@@ -683,9 +683,6 @@
     <t>validateSavedRecordsFeature</t>
   </si>
   <si>
-    <t>rashmi.rl@thomsonreuters.com</t>
-  </si>
-  <si>
     <t>CheckboxSelection</t>
   </si>
   <si>
@@ -743,75 +740,12 @@
     <t>ES198601278A</t>
   </si>
   <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>smiles</t>
   </si>
   <si>
-    <t>Fail:ClearAll button is in disable modeclickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58036}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5e99098926a26aab6a7e744f4ebe47d9
-*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}clickOnbutton ClearAll Filters is not workingorg.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-button-wrapper'][contains(.,'Clear all')]"}
-  (Session info: chrome=91.0.4472.124)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:58036}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 5e99098926a26aab6a7e744f4ebe47d9
-*** Element info: {Using=xpath, value=//span[@class='mat-button-wrapper'][contains(.,'Clear all')]}</t>
-  </si>
-  <si>
-    <t>Fail:PDF window opens has not opened</t>
-  </si>
-  <si>
-    <t>Fail:dropdown value has not fetchedjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-value']/span/span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@615e555d (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60020}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9c29b511e0f7295e7accff85995be0d8dropdown value has not fetchedjava.lang.Exception: getText is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-value']/span/span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@615e555d (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60020}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 9c29b511e0f7295e7accff85995be0d8</t>
-  </si>
-  <si>
-    <t>Fail:RESULT SETS ARE NOT REFRESHED  : 	0		 :	1759456RESULT SETS ARE NOT REFRESHED : 	0		 AFTER FILTER :	1759456</t>
-  </si>
-  <si>
-    <t>Fail:INVENTOR FILTER FIELD  IS ENABLED</t>
-  </si>
-  <si>
-    <t>Fail:Inventor filter field  IS ENABLED</t>
-  </si>
-  <si>
-    <t>Fail:clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@40a1ff79 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60427}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 2cc58071c0117c7a31960630ab7b60e9clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@40a1ff79 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.222', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60427}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 2cc58071c0117c7a31960630ab7b60e9</t>
-  </si>
-  <si>
     <t>Fail:clickOnLinkCitingPatent is not workingjava.lang.Exception: jsClick is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' (tried for 50 second(s) with 500 milliseconds interval)clickOnLinkCitingPatent is not workingjava.lang.Exception: jsClick is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: (//mat-panel-title[contains(@class,'mat-expansion-panel-header-title citation-headers')])[1]' (tried for 50 second(s) with 500 milliseconds interval)</t>
   </si>
   <si>
-    <t>Fail:setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)setTextFolderName is not working..java.lang.Exception: selenium click is not  working on:: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.xpath: //input[@ng-reflect-placeholder='Type folder name']' (tried for 50 second(s) with 500 milliseconds interval)</t>
-  </si>
-  <si>
     <t>CHEMEXP-1291</t>
   </si>
   <si>
@@ -891,19 +825,6 @@
   </si>
   <si>
     <t>CHEMEXP-1349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail:clickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@ac9f52b (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.210', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: dde5f8da0abad15f5de451ac7fd9aaddclickOnExpandDropdown is not working waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: (//section[@class='filter-details']//div[@class='mat-form-field-infix']//mat-icon)[1]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@ac9f52b (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-84X6PV2', ip: '10.50.80.210', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 91.0.4472.124, chrome: {chromedriverVersion: 91.0.4472.101 (af52a90bf870..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: dde5f8da0abad15f5de451ac7fd9aaddResults are not get refreshed </t>
   </si>
   <si>
     <t>Validate - Resultset page - Company and Person search</t>
@@ -1207,6 +1128,220 @@
   </si>
   <si>
     <t>CHEMEXP-1664</t>
+  </si>
+  <si>
+    <t>chemexpuser1@clarivate.com</t>
+  </si>
+  <si>
+    <t>Welcome@1</t>
+  </si>
+  <si>
+    <t>Fail:ClearAll button is in disable mode</t>
+  </si>
+  <si>
+    <t>Fail:setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@794b4d93 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62696}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: aa20d1920d0fc83ab763fba7c6c61ee6setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //textarea[@placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@794b4d93 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62696}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: aa20d1920d0fc83ab763fba7c6c61ee6</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53184}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bf9fe3fd097545f473e0961b79981555
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53184}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bf9fe3fd097545f473e0961b79981555
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@5448460a (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53184}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bf9fe3fd097545f473e0961b79981555clickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@5448460a (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53184}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bf9fe3fd097545f473e0961b79981555</t>
+  </si>
+  <si>
+    <t>Fail:clickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771537f5 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50952}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7032138d5b1d04a5db3982bee9e8b18dclickOnMoreFiltersDropdown is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-select-arrow']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771537f5 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '10.50.18.66', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50952}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 7032138d5b1d04a5db3982bee9e8b18d</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55238}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 11257e9fc8ba998ac337a5072d985907
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:55238}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 11257e9fc8ba998ac337a5072d985907
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61145}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9d9cdeff4f02d9fbb1785a4533d1810
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61145}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9d9cdeff4f02d9fbb1785a4533d1810
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@dc0f64f (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61145}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9d9cdeff4f02d9fbb1785a4533d1810clickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@dc0f64f (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61145}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9d9cdeff4f02d9fbb1785a4533d1810</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61834}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d3709e9f729c7c3defa15b62a552a16c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61834}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d3709e9f729c7c3defa15b62a552a16c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6159c33 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61834}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d3709e9f729c7c3defa15b62a552a16cclickOnAuthorsTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath:  //div[contains(normalize-space(text()), 'Authors' )]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6159c33 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:61834}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d3709e9f729c7c3defa15b62a552a16c</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:65501}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9da553201ca81f04b8f542daf10c9ed0
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: chrome=94.0.4606.71)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:65501}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 9da553201ca81f04b8f542daf10c9ed0
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:CITING PATENT SECTION REAMAINS IN EXPANDED STATECITED PATENT SECTION IS NOT IN EXPANDED STATE</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: driver.version: RemoteWebDriverclickOnLinkCreateNewFolder is not workingorg.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkSeeAllStructures is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (909bb39eff7c132335c675f9e34fa6b4)] -&gt; xpath: //button/span[contains(.,'See all structures')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2d99b157 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62674}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 909bb39eff7c132335c675f9e34fa6b4clickOnLinkSeeAllStructures is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: [[ChromeDriver: chrome on WINDOWS (909bb39eff7c132335c675f9e34fa6b4)] -&gt; xpath: //button/span[contains(.,'See all structures')]] org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2d99b157 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:62674}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 909bb39eff7c132335c675f9e34fa6b4</t>
+  </si>
+  <si>
+    <t>Fail:disconnected: Unable to receive message from renderer
+  (Session info: chrome=94.0.4606.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56563}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 979fc21a2985364c3f99a94bdd367b3d</t>
+  </si>
+  <si>
+    <t>Fail:disconnected: Unable to receive message from renderer
+  (Session info: chrome=94.0.4606.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56563}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 979fc21a2985364c3f99a94bdd367b3dsetText is not working for :: Proxy element for: DefaultElementLocator 'By.cssSelector: #mat-input-0' java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: #mat-input-0' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@2158e0f1 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-84X6PV2', ip: '192.168.1.11', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_91'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 94.0.4606.71, chrome: {chromedriverVersion: 94.0.4606.61 (418b78f5838ed..., userDataDir: C:\Users\U6049848\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56508}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4877b33a1ad3fd349c472b4f437b1401</t>
+  </si>
+  <si>
+    <t>Fail:CITING PATENT SECTION IS NOT EXPANDED ON CLICKCITED PATENT SECTION IS NOT IN EXPANDED STATE</t>
+  </si>
+  <si>
+    <t>Rerun</t>
   </si>
 </sst>
 </file>
@@ -1214,9 +1349,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,8 +1434,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,8 +1474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1349,16 +1504,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1374,22 +1554,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1402,16 +1570,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{AA68FCC1-0F32-4B18-9A9A-444BEC9A472A}"/>
     <cellStyle name="Comma 2 2 2" xfId="5" xr:uid="{1A7BAE10-D655-46A3-884E-7A3BE33A8E6A}"/>
     <cellStyle name="Comma 2 3" xfId="4" xr:uid="{02E4C50F-082B-4B45-BB33-E0B251D59FE1}"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
@@ -1756,14 +1959,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="35.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1792,33 +1995,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="65.88671875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="59" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.77734375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="70.44140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="40" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.33203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" style="4" collapsed="1"/>
-    <col min="14" max="14" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="65.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="23.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="59.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="9.765625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="255.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="37.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="4" width="70.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="40.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="14.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="4" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" style="4" width="8.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="4" width="28.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="4" width="27.42578125" collapsed="true"/>
+    <col min="17" max="16384" style="4" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1834,38 +2038,39 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1879,22 +2084,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -1908,22 +2113,22 @@
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1937,22 +2142,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -1966,22 +2171,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -1995,22 +2200,22 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -2024,25 +2229,25 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -2056,25 +2261,25 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -2088,25 +2293,25 @@
         <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
@@ -2120,22 +2325,22 @@
         <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -2149,25 +2354,25 @@
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2181,25 +2386,25 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -2213,25 +2418,25 @@
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
@@ -2245,25 +2450,25 @@
         <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
+        <v>276</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
@@ -2277,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
@@ -2309,836 +2514,853 @@
         <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" s="33" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>199</v>
+        <v>3</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="H24" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" s="25" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J26" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="26"/>
+      <c r="L27" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="H30" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:13" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11" s="25" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" s="29" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="H37" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="H38" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="12" t="s">
+      <c r="H41" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I38" s="12" t="s">
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I43" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" s="31" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>168</v>
       </c>
@@ -3152,22 +3374,22 @@
         <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="H44" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>169</v>
       </c>
@@ -3181,22 +3403,22 @@
         <v>161</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I45" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>170</v>
       </c>
@@ -3210,22 +3432,22 @@
         <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>171</v>
       </c>
@@ -3239,22 +3461,22 @@
         <v>164</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F47" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>172</v>
       </c>
@@ -3268,23 +3490,23 @@
         <v>166</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I48" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>191</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3297,734 +3519,747 @@
         <v>179</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F49" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:16" s="21" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="23"/>
+      <c r="N51" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="26"/>
+    </row>
+    <row r="53" spans="1:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K53" s="26"/>
+    </row>
+    <row r="54" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="26"/>
+    </row>
+    <row r="55" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="26"/>
+    </row>
+    <row r="56" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="15"/>
+    </row>
+    <row r="58" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O62" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K63" s="26"/>
+      <c r="O63" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="O64" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O65" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="25" customFormat="1" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I50" s="18" t="s">
+      <c r="B72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J72" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="M51" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="19"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G72" xr:uid="{B80EE932-CD49-44D2-AE80-30EC3C5037E2}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H37" r:id="rId1" xr:uid="{499BDE3A-830E-486B-83A8-C4A52550CE21}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B95AC-DC94-4379-AFA1-E8843A499793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F4DAD-1CD4-4A5C-A43A-61BAE9C4294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="282">
   <si>
     <t>TSID</t>
   </si>
@@ -719,9 +719,6 @@
     <t xml:space="preserve">polyethylene </t>
   </si>
   <si>
-    <t>resin</t>
-  </si>
-  <si>
     <t>CHEMEXP-1086</t>
   </si>
   <si>
@@ -1038,6 +1035,57 @@
   </si>
   <si>
     <t xml:space="preserve">CHEMEXP-1824 </t>
+  </si>
+  <si>
+    <t>anand.perumallukamichetty@clarivate.com</t>
+  </si>
+  <si>
+    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-dcq-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1155, 405). Other element would receive the click: &lt;p _ngcontent-dcq-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56994}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8662336e9619b3137767269c7ec9a033clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-dcq-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1155, 405). Other element would receive the click: &lt;p _ngcontent-dcq-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56994}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8662336e9619b3137767269c7ec9a033</t>
+  </si>
+  <si>
+    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-wok-c171="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="icon" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg cdx-but-link org mat-stroked-button mat-button-base mat-primary" title="company/organization" style="place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1457, 189). Other element would receive the click: &lt;p _ngcontent-wok-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57357}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 472697228d15dfb703788ae9d7b9ab29clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-wok-c171="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="icon" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg cdx-but-link org mat-stroked-button mat-button-base mat-primary" title="company/organization" style="place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1457, 189). Other element would receive the click: &lt;p _ngcontent-wok-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.71)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57357}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 472697228d15dfb703788ae9d7b9ab29</t>
+  </si>
+  <si>
+    <t>Derwent@2022</t>
+  </si>
+  <si>
+    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-mqw-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1462, 513). Other element would receive the click: &lt;p _ngcontent-mqw-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.99)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.99, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 34b59cc70165802c31f01acc28bca7ccclickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-mqw-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1462, 513). Other element would receive the click: &lt;p _ngcontent-mqw-c162=""&gt;...&lt;/p&gt;
+  (Session info: chrome=97.0.4692.99)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.99, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 34b59cc70165802c31f01acc28bca7cc</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1192,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1157,6 +1205,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1504,17 +1553,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1546,32 +1595,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" style="3" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" hidden="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="255" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="70.44140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="70.42578125" style="3" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="40" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.88671875" style="3" collapsed="1"/>
+    <col min="12" max="12" width="203.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="132.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.85546875" style="3" collapsed="1"/>
     <col min="15" max="15" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.44140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3" collapsed="1"/>
+    <col min="16" max="16" width="27.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="8.85546875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1613,13 +1662,13 @@
         <v>196</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -1633,22 +1682,22 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>267</v>
+      <c r="H2" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1662,22 +1711,22 @@
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>267</v>
+      <c r="H3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -1691,22 +1740,22 @@
         <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>267</v>
+      <c r="H4" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
@@ -1720,22 +1769,22 @@
         <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>267</v>
+      <c r="H5" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -1749,22 +1798,22 @@
         <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>267</v>
+      <c r="H6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>87</v>
       </c>
@@ -1778,16 +1827,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>267</v>
+      <c r="H7" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
@@ -1796,7 +1845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
@@ -1810,16 +1859,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>267</v>
+      <c r="H8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>35</v>
@@ -1828,7 +1877,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
@@ -1842,16 +1891,16 @@
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>267</v>
+      <c r="H9" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>35</v>
@@ -1860,7 +1909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -1874,22 +1923,22 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>267</v>
+      <c r="H10" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>91</v>
       </c>
@@ -1903,16 +1952,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>267</v>
+      <c r="H11" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>20</v>
@@ -1921,7 +1970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -1935,16 +1984,16 @@
         <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>267</v>
+      <c r="H12" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>20</v>
@@ -1953,7 +2002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -1967,16 +2016,16 @@
         <v>47</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>267</v>
+      <c r="H13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>20</v>
@@ -1985,7 +2034,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
@@ -1999,16 +2048,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>267</v>
+      <c r="H14" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>20</v>
@@ -2017,7 +2066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>96</v>
       </c>
@@ -2031,16 +2080,16 @@
         <v>52</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>267</v>
+      <c r="H15" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>35</v>
@@ -2049,7 +2098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -2063,22 +2112,22 @@
         <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>267</v>
+      <c r="H16" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -2092,22 +2141,22 @@
         <v>62</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>267</v>
+      <c r="H17" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
@@ -2121,22 +2170,22 @@
         <v>67</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>267</v>
+      <c r="H18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
@@ -2150,22 +2199,22 @@
         <v>64</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>267</v>
+      <c r="H19" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>101</v>
       </c>
@@ -2179,22 +2228,22 @@
         <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>267</v>
+      <c r="H20" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -2208,19 +2257,19 @@
         <v>69</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>267</v>
+      <c r="H21" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>70</v>
@@ -2229,12 +2278,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
@@ -2243,22 +2292,22 @@
         <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
@@ -2272,22 +2321,22 @@
         <v>56</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>267</v>
+      <c r="H23" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -2301,19 +2350,19 @@
         <v>58</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -2327,22 +2376,22 @@
         <v>60</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>267</v>
+      <c r="H25" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>110</v>
       </c>
@@ -2356,22 +2405,22 @@
         <v>79</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>267</v>
+      <c r="H26" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>111</v>
       </c>
@@ -2385,16 +2434,16 @@
         <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>267</v>
+      <c r="H27" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>73</v>
@@ -2403,7 +2452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>113</v>
       </c>
@@ -2417,22 +2466,22 @@
         <v>112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>267</v>
+      <c r="H28" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
@@ -2446,22 +2495,22 @@
         <v>118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>267</v>
+      <c r="H29" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
@@ -2475,22 +2524,22 @@
         <v>121</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>267</v>
+      <c r="H30" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>122</v>
       </c>
@@ -2504,22 +2553,22 @@
         <v>124</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>267</v>
+      <c r="H31" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>125</v>
       </c>
@@ -2533,22 +2582,22 @@
         <v>126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>267</v>
+      <c r="H32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>127</v>
       </c>
@@ -2562,23 +2611,23 @@
         <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="5" t="s">
         <v>176</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="99.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>130</v>
       </c>
@@ -2592,23 +2641,23 @@
         <v>132</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="5" t="s">
         <v>176</v>
       </c>
       <c r="H34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>133</v>
       </c>
@@ -2622,23 +2671,23 @@
         <v>134</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
@@ -2652,23 +2701,23 @@
         <v>136</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>137</v>
       </c>
@@ -2682,22 +2731,22 @@
         <v>139</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>267</v>
+      <c r="H37" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
@@ -2711,22 +2760,22 @@
         <v>142</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>267</v>
+      <c r="H38" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -2740,23 +2789,23 @@
         <v>145</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>146</v>
       </c>
@@ -2770,23 +2819,23 @@
         <v>148</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>149</v>
       </c>
@@ -2800,22 +2849,22 @@
         <v>151</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>267</v>
+      <c r="H41" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>152</v>
       </c>
@@ -2829,23 +2878,23 @@
         <v>154</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H42" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>167</v>
       </c>
@@ -2859,22 +2908,22 @@
         <v>156</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>267</v>
+      <c r="H43" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>168</v>
       </c>
@@ -2888,22 +2937,22 @@
         <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>267</v>
+      <c r="H44" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>169</v>
       </c>
@@ -2917,23 +2966,23 @@
         <v>161</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>170</v>
       </c>
@@ -2947,22 +2996,22 @@
         <v>162</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>267</v>
+      <c r="H46" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>171</v>
       </c>
@@ -2976,22 +3025,22 @@
         <v>164</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>267</v>
+      <c r="H47" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>172</v>
       </c>
@@ -3005,22 +3054,22 @@
         <v>166</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>267</v>
+      <c r="H48" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>191</v>
       </c>
@@ -3034,22 +3083,22 @@
         <v>179</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>267</v>
+      <c r="H49" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>192</v>
       </c>
@@ -3063,23 +3112,23 @@
         <v>182</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>193</v>
       </c>
@@ -3093,17 +3142,17 @@
         <v>184</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H51" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>23</v>
@@ -3112,7 +3161,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>194</v>
       </c>
@@ -3126,22 +3175,22 @@
         <v>187</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>267</v>
+      <c r="H52" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>195</v>
       </c>
@@ -3155,24 +3204,24 @@
         <v>189</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>267</v>
+      <c r="H53" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>197</v>
@@ -3184,24 +3233,24 @@
         <v>198</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>267</v>
+      <c r="H54" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>199</v>
@@ -3213,22 +3262,22 @@
         <v>200</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>267</v>
+      <c r="H55" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>207</v>
       </c>
@@ -3242,22 +3291,22 @@
         <v>202</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>267</v>
+      <c r="H56" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>208</v>
       </c>
@@ -3271,22 +3320,22 @@
         <v>204</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>267</v>
+      <c r="H57" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>209</v>
       </c>
@@ -3300,476 +3349,476 @@
         <v>206</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>267</v>
+      <c r="H58" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O59" s="3" t="s">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="E60" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>267</v>
+      <c r="H60" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="O61" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>267</v>
+      <c r="H62" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="E64" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>267</v>
+      <c r="H64" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>267</v>
+      <c r="H65" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K65" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O65" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="E66" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>267</v>
+      <c r="H66" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="E67" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>267</v>
+        <v>281</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="E69" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>267</v>
+        <v>278</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>115</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="E71" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>267</v>
+      <c r="H71" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="E72" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>267</v>
+      <c r="H72" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="E73" s="7" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>176</v>
@@ -3777,11 +3826,11 @@
       <c r="G73" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>267</v>
+      <c r="H73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>20</v>
@@ -3795,6 +3844,7 @@
   <autoFilter ref="A1:P73" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
     <filterColumn colId="4">
       <filters>
+        <filter val="Rerun"/>
         <filter val="Y"/>
       </filters>
     </filterColumn>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F4DAD-1CD4-4A5C-A43A-61BAE9C4294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE113EC-5475-4998-A0FC-0157AF1986D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$P$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$P$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="294">
   <si>
     <t>TSID</t>
   </si>
@@ -1040,52 +1040,52 @@
     <t>anand.perumallukamichetty@clarivate.com</t>
   </si>
   <si>
-    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-dcq-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1155, 405). Other element would receive the click: &lt;p _ngcontent-dcq-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.71)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56994}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8662336e9619b3137767269c7ec9a033clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-dcq-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1155, 405). Other element would receive the click: &lt;p _ngcontent-dcq-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.71)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:56994}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8662336e9619b3137767269c7ec9a033</t>
-  </si>
-  <si>
-    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-wok-c171="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="icon" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg cdx-but-link org mat-stroked-button mat-button-base mat-primary" title="company/organization" style="place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1457, 189). Other element would receive the click: &lt;p _ngcontent-wok-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.71)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57357}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 472697228d15dfb703788ae9d7b9ab29clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-wok-c171="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="icon" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg cdx-but-link org mat-stroked-button mat-button-base mat-primary" title="company/organization" style="place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1457, 189). Other element would receive the click: &lt;p _ngcontent-wok-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.71)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.71, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57357}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 472697228d15dfb703788ae9d7b9ab29</t>
-  </si>
-  <si>
     <t>Derwent@2022</t>
   </si>
   <si>
-    <t>Fail:clickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-mqw-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1462, 513). Other element would receive the click: &lt;p _ngcontent-mqw-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.99)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.99, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 34b59cc70165802c31f01acc28bca7ccclickOnOrganizationIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;button _ngcontent-mqw-c166="" aria-haspopup="true" type="button" mat-stroked-button="" color="primary" aria-label="cdx secondary disabled button" fxlayoutalign="center center" class="mat-focus-indicator mat-menu-trigger cdx-but-lg mat-stroked-button mat-button-base mat-primary" title="company/organization" style="margin-right: 2px; place-content: center; align-items: center; flex-direction: row; box-sizing: border-box; display: flex;"&gt;...&lt;/button&gt; is not clickable at point (1462, 513). Other element would receive the click: &lt;p _ngcontent-mqw-c162=""&gt;...&lt;/p&gt;
-  (Session info: chrome=97.0.4692.99)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 97.0.4692.99, chrome: {chromedriverVersion: 97.0.4692.71 (adefa7837d02a..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 34b59cc70165802c31f01acc28bca7cc</t>
+    <t>Validate PDF links in the Patent Record View</t>
+  </si>
+  <si>
+    <t>vaildatePDFPatentRecordView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate RS sort options </t>
+  </si>
+  <si>
+    <t>vaildateRsSortOptions</t>
+  </si>
+  <si>
+    <t>Validate chemical role filter</t>
+  </si>
+  <si>
+    <t>vaildateChemicalRoleFilterOptions</t>
+  </si>
+  <si>
+    <t>Validate search History functionality</t>
+  </si>
+  <si>
+    <t>validateSearchistoryFuntionality</t>
+  </si>
+  <si>
+    <t>azobisisobutyronitrile</t>
+  </si>
+  <si>
+    <t>initiator radical</t>
+  </si>
+  <si>
+    <t>azobis</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1982</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1983</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1984</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1985</t>
   </si>
 </sst>
 </file>
@@ -1192,20 +1192,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1556,14 +1555,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1593,34 +1592,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" style="3" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="255" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="70.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="40" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="203.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="132.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.85546875" style="3" collapsed="1"/>
-    <col min="15" max="15" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.85546875" style="3" collapsed="1"/>
+    <col min="1" max="1" width="25.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="255" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.33203125" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="70.44140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="40" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="203.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="132.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.88671875" style="6" collapsed="1"/>
+    <col min="15" max="15" width="28" style="6" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="8.88671875" style="6" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1668,936 +1667,936 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="E19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="E21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="E22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="E23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="E24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="E28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="E29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="E30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="E31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="E32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>127</v>
       </c>
@@ -2610,7 +2609,7 @@
       <c r="D33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F33" s="3"/>
@@ -2627,7 +2626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="99.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>130</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="D34" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F34" s="3"/>
@@ -2657,7 +2656,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>133</v>
       </c>
@@ -2670,7 +2669,7 @@
       <c r="D35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F35" s="3"/>
@@ -2687,7 +2686,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>135</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="D36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F36" s="3"/>
@@ -2717,65 +2716,65 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -2788,7 +2787,7 @@
       <c r="D39" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F39" s="3"/>
@@ -2805,7 +2804,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>146</v>
       </c>
@@ -2818,7 +2817,7 @@
       <c r="D40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F40" s="3"/>
@@ -2835,36 +2834,36 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="E41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>152</v>
       </c>
@@ -2877,7 +2876,7 @@
       <c r="D42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F42" s="3"/>
@@ -2894,65 +2893,65 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="E43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="E44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>169</v>
       </c>
@@ -2965,7 +2964,7 @@
       <c r="D45" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F45" s="3"/>
@@ -2982,123 +2981,123 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="E47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="E48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="E49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>192</v>
       </c>
@@ -3111,7 +3110,7 @@
       <c r="D50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F50" s="3"/>
@@ -3128,7 +3127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="5" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>193</v>
       </c>
@@ -3141,7 +3140,7 @@
       <c r="D51" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F51" s="3"/>
@@ -3161,469 +3160,469 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="E52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="E53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="E54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="E55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J55" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="E56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="E57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="E58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="O59" s="3" t="s">
+      <c r="E59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O59" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J60" s="3" t="s">
+      <c r="E60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K60" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="E61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="E62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="O63" s="3" t="s">
+      <c r="E63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O63" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="E64" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="C66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J66" s="3" t="s">
+      <c r="E66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>250</v>
       </c>
@@ -3636,7 +3635,7 @@
       <c r="D67" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>273</v>
       </c>
       <c r="F67" s="3"/>
@@ -3653,198 +3652,315 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J68" s="3" t="s">
+      <c r="C75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J75" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P73" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
+  <autoFilter ref="A1:P77" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Rerun"/>
         <filter val="Y"/>
       </filters>
     </filterColumn>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49A917-DB77-4065-AC15-4B8B1109FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5B125-7501-4DCF-BF5C-C2A64F8970E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$P$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="305">
   <si>
     <t>TSID</t>
   </si>
@@ -904,40 +904,447 @@
     <t>Filter inventor by text</t>
   </si>
   <si>
-    <t>Fail:ClearAll button is in disable mode</t>
-  </si>
-  <si>
-    <t>Fail:MEDIUM SIZE IMAGE IS NOT DISPLAYED IN RSLARGE SIZE IMAGE IS NOT DISPLAYED IN RS</t>
-  </si>
-  <si>
-    <t>Fail:setTextSmileyTextBox is not working..org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.105', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
-Driver info: driver.version: RemoteWebDriversetTextSmileyTextBox is not working..org.openqa.selenium.json.JsonException: java.lang.reflect.InvocationTargetException
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.105', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
-Driver info: driver.version: RemoteWebDriver</t>
-  </si>
-  <si>
-    <t>Fail:timeout: Timed out receiving message from renderer: 300.000
-  (Session info: headless chrome=103.0.5060.114)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.105', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 103.0.5060.114, chrome: {chromedriverVersion: 103.0.5060.53 (a1711811edd7..., userDataDir: C:\Users\U6070295\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:63116}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e952f1240a31e35a494398860c14c5fc</t>
-  </si>
-  <si>
-    <t>Fail:timeout: Timed out receiving message from renderer: 300.000
-  (Session info: headless chrome=103.0.5060.114)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.105', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 103.0.5060.114, chrome: {chromedriverVersion: 103.0.5060.53 (a1711811edd7..., userDataDir: C:\Users\U6070295\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:65369}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 6ea14ddfdfa3f8d111c4916d483dd29b</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50</t>
+  </si>
+  <si>
+    <t>Fail:clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 80119777d5e70a66d5addb9fdd27c52c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 80119777d5e70a66d5addb9fdd27c52c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50513}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bd323cc786d922bf37527c5c15ee1ef7
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50513}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: bd323cc786d922bf37527c5c15ee1ef7
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 776c649fbf883a2b95496c2dae5ccc89
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 776c649fbf883a2b95496c2dae5ccc89
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771bf5be (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 776c649fbf883a2b95496c2dae5ccc89waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771bf5be (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 776c649fbf883a2b95496c2dae5ccc89</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50605}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: eed22139d62fc8690124be8839fbe95d
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50605}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: eed22139d62fc8690124be8839fbe95d
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50832}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c322e821464b224f712b69fa69a25363
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50832}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: c322e821464b224f712b69fa69a25363
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50880}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ee342e5d2f896494496694e0389b575e
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50880}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ee342e5d2f896494496694e0389b575e
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50982}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a1d19cbcb34e7feadaf839307cb56d35
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50982}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: a1d19cbcb34e7feadaf839307cb56d35
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
+  (Session info: headless chrome=105.0.5195.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51099}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 09356784ebdc56212189374718ba0436clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
+  (Session info: headless chrome=105.0.5195.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51099}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 09356784ebdc56212189374718ba0436</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d101861de5ca095e501e8dbd93288e8
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d101861de5ca095e501e8dbd93288e8
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}EXPECTED AND ACTUAL PUBLICATION YEAR CHART LABEL NAMES ARE NOT MATCHINGclickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
+  (Session info: headless chrome=105.0.5195.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d101861de5ca095e501e8dbd93288e8clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
+  (Session info: headless chrome=105.0.5195.102)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8d101861de5ca095e501e8dbd93288e8</t>
+  </si>
+  <si>
+    <t>Fail:selectManageFieldCheckBoxes is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51381}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e9aa76b79402524867cb30fe78878564
+*** Element info: {Using=xpath, value=//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']}selectManageFieldCheckBoxes is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51381}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e9aa76b79402524867cb30fe78878564
+*** Element info: {Using=xpath, value=//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']}</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 79ccef31ad7fe79d51f15495020a7b2c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 79ccef31ad7fe79d51f15495020a7b2c
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //*/section[2]//div/section/section/section[2]/section/app-result-set[1]//section[2]/div/button' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1348baad (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 79ccef31ad7fe79d51f15495020a7b2cclickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //*/section[2]//div/section/section/section[2]/section/app-result-set[1]//section[2]/div/button' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1348baad (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 79ccef31ad7fe79d51f15495020a7b2c</t>
+  </si>
+  <si>
+    <t>Fail:clickOnLinkSavedRecords is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: button.cdx-but-md.cdx-but-link.mat-button.mat-button-base.mat-primary &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e60262d (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51606}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 08adf9b06aa7ceeb621517505b7b5120clickOnLinkSavedRecords is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: button.cdx-but-md.cdx-but-link.mat-button.mat-button-base.mat-primary &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e60262d (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51606}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 08adf9b06aa7ceeb621517505b7b5120</t>
+  </si>
+  <si>
+    <t>Fail:clickOnChemExpHomePage is not working no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='company-name']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 0359895063e1cd5574cbd629ca195f1d
+*** Element info: {Using=xpath, value=//a[@class='company-name']}clickOnChemExpHomePage is not working no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='company-name']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 0359895063e1cd5574cbd629ca195f1d
+*** Element info: {Using=xpath, value=//a[@class='company-name']}setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@data-placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@25c89f52 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 0359895063e1cd5574cbd629ca195f1dsetTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@data-placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@25c89f52 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 0359895063e1cd5574cbd629ca195f1d</t>
+  </si>
+  <si>
+    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6d7ba177 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51950}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fd9ae4861283860298f66edd8e4d9f72clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6d7ba177 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51950}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fd9ae4861283860298f66edd8e4d9f72</t>
+  </si>
+  <si>
+    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@75338529 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52033}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 10b85311e8654598a13c5b3f96629df7clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@75338529 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52033}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 10b85311e8654598a13c5b3f96629df7</t>
+  </si>
+  <si>
+    <t>Fail:isDisabledLiteratureTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@title='Structure search not yet available for Literature']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6a8b24c3 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52150}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 245d3ea5a9ee6aff4c78f2904ccbc0ffisDisabledLiteratureTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@title='Structure search not yet available for Literature']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6a8b24c3 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52150}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 245d3ea5a9ee6aff4c78f2904ccbc0ff</t>
+  </si>
+  <si>
+    <t>Fail:clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@17f6f008 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52377}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e1df13b4d6c27405835756af2f45d334clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@17f6f008 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52377}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e1df13b4d6c27405835756af2f45d334</t>
+  </si>
+  <si>
+    <t>Fail:clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1de8a37 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52602}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: cc3ff2acc3871611498cc447ccb748c1clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1de8a37 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52602}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: cc3ff2acc3871611498cc447ccb748c1</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 51505d227be6e01fd6b7cc1e03a240fe
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 51505d227be6e01fd6b7cc1e03a240fe
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //h4[contains(.,'Edit existing cluster items')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@54a48703 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 51505d227be6e01fd6b7cc1e03a240fewaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //h4[contains(.,'Edit existing cluster items')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@54a48703 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 51505d227be6e01fd6b7cc1e03a240fe</t>
+  </si>
+  <si>
+    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
+  (Session info: headless chrome=105.0.5195.102)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
+*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@29e52142 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53493}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e1024d7bba6d2ff67f077aded51ed04bwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@29e52142 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53493}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e1024d7bba6d2ff67f077aded51ed04b</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@665224b4 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.127, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57875}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: faad4a59a4ae9c859bd1b3d80e33ae32waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@665224b4 (tried for 50 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.127, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57875}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: faad4a59a4ae9c859bd1b3d80e33ae32</t>
   </si>
 </sst>
 </file>
@@ -945,9 +1352,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +1390,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1034,14 +1448,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1050,6 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1401,14 +1816,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1437,34 +1852,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="56.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="255" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="70.44140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="40" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="203.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="132.109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.88671875" style="5" collapsed="1"/>
-    <col min="15" max="15" width="28" style="5" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.44140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="8.88671875" style="5" collapsed="1"/>
+    <col min="4" max="4" width="56.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="40" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="203.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="132.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.85546875" style="5" collapsed="1"/>
+    <col min="14" max="14" width="28" style="5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.85546875" style="5" collapsed="1"/>
+    <col min="17" max="17" width="8.85546875" style="5"/>
+    <col min="18" max="16384" width="8.85546875" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1480,39 +1896,38 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -1528,20 +1943,20 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -1557,20 +1972,20 @@
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -1586,20 +2001,20 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -1615,20 +2030,20 @@
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
@@ -1644,20 +2059,20 @@
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G6" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
@@ -1673,23 +2088,23 @@
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -1705,23 +2120,23 @@
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
@@ -1737,23 +2152,23 @@
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G9" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>89</v>
       </c>
@@ -1769,20 +2184,20 @@
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>90</v>
       </c>
@@ -1798,23 +2213,23 @@
       <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
@@ -1830,23 +2245,23 @@
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
@@ -1862,23 +2277,23 @@
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
@@ -1894,23 +2309,23 @@
       <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>95</v>
       </c>
@@ -1926,23 +2341,23 @@
       <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
@@ -1958,20 +2373,20 @@
       <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -1987,20 +2402,20 @@
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -2016,20 +2431,20 @@
       <c r="E18" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>99</v>
       </c>
@@ -2045,20 +2460,20 @@
       <c r="E19" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G19" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -2074,20 +2489,20 @@
       <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G20" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -2103,26 +2518,26 @@
       <c r="E21" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J21" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="K21" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="L21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
@@ -2138,20 +2553,20 @@
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F22" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G22" s="6" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J22" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -2167,20 +2582,20 @@
       <c r="E23" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F23" s="6" t="s">
+        <v>281</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -2196,17 +2611,17 @@
       <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F24" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
@@ -2222,20 +2637,20 @@
       <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>109</v>
       </c>
@@ -2251,20 +2666,20 @@
       <c r="E26" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F26" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
@@ -2280,23 +2695,23 @@
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -2312,20 +2727,20 @@
       <c r="E28" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J28" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -2341,20 +2756,20 @@
       <c r="E29" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G29" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
@@ -2370,20 +2785,20 @@
       <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G30" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J30" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>121</v>
       </c>
@@ -2399,20 +2814,20 @@
       <c r="E31" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="G31" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J31" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
@@ -2428,136 +2843,136 @@
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>262</v>
+      <c r="F32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J32" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>262</v>
+      <c r="E33" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>262</v>
+      <c r="E34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>262</v>
+      <c r="E35" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J35" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>262</v>
+      <c r="E36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J36" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>136</v>
       </c>
@@ -2573,20 +2988,20 @@
       <c r="E37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>262</v>
+      <c r="F37" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>139</v>
       </c>
@@ -2602,78 +3017,78 @@
       <c r="E38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>262</v>
+      <c r="F38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J38" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>262</v>
+      <c r="E39" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J39" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>262</v>
+      <c r="E40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J40" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>148</v>
       </c>
@@ -2689,49 +3104,49 @@
       <c r="E41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>262</v>
+      <c r="F41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J41" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>3</v>
+      <c r="E42" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J42" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
@@ -2747,20 +3162,20 @@
       <c r="E43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>262</v>
+      <c r="F43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J43" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>167</v>
       </c>
@@ -2776,49 +3191,49 @@
       <c r="E44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>262</v>
+      <c r="F44" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>3</v>
+      <c r="E45" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>169</v>
       </c>
@@ -2834,20 +3249,20 @@
       <c r="E46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>262</v>
+      <c r="F46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J46" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>170</v>
       </c>
@@ -2863,20 +3278,20 @@
       <c r="E47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>262</v>
+      <c r="F47" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J47" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>171</v>
       </c>
@@ -2892,20 +3307,20 @@
       <c r="E48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>262</v>
+      <c r="F48" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J48" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>187</v>
       </c>
@@ -2921,49 +3336,49 @@
       <c r="E49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>262</v>
+      <c r="F49" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J49" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>262</v>
+      <c r="E50" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J50" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>189</v>
       </c>
@@ -2979,20 +3394,20 @@
       <c r="E51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>262</v>
+      <c r="F51" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J51" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>190</v>
       </c>
@@ -3008,20 +3423,20 @@
       <c r="E52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>262</v>
+      <c r="F52" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>206</v>
       </c>
@@ -3037,20 +3452,20 @@
       <c r="E53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>262</v>
+      <c r="F53" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>207</v>
       </c>
@@ -3066,20 +3481,20 @@
       <c r="E54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>262</v>
+      <c r="F54" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J54" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>202</v>
       </c>
@@ -3095,20 +3510,20 @@
       <c r="E55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>262</v>
+      <c r="F55" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J55" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>203</v>
       </c>
@@ -3124,20 +3539,20 @@
       <c r="E56" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>262</v>
+      <c r="F56" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J56" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>204</v>
       </c>
@@ -3153,20 +3568,20 @@
       <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>262</v>
+      <c r="F57" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J57" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>211</v>
       </c>
@@ -3182,20 +3597,20 @@
       <c r="E58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="O58" s="6" t="s">
+      <c r="F58" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>215</v>
       </c>
@@ -3211,26 +3626,26 @@
       <c r="E59" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>262</v>
+      <c r="F59" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="N59" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>220</v>
       </c>
@@ -3246,23 +3661,23 @@
       <c r="E60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>262</v>
+      <c r="F60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J60" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="N60" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>234</v>
       </c>
@@ -3278,26 +3693,26 @@
       <c r="E61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>262</v>
+      <c r="F61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="N61" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>235</v>
       </c>
@@ -3313,23 +3728,23 @@
       <c r="E62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>263</v>
+      <c r="F62" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="P62" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>236</v>
       </c>
@@ -3345,23 +3760,23 @@
       <c r="E63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>262</v>
+      <c r="F63" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="N63" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>237</v>
       </c>
@@ -3377,26 +3792,26 @@
       <c r="E64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>262</v>
+      <c r="F64" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="N64" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>241</v>
       </c>
@@ -3412,49 +3827,49 @@
       <c r="E65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>262</v>
+      <c r="F65" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J65" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>262</v>
+      <c r="E66" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J66" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>247</v>
       </c>
@@ -3470,20 +3885,20 @@
       <c r="E67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>262</v>
+      <c r="F67" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J67" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>250</v>
       </c>
@@ -3499,23 +3914,23 @@
       <c r="E68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>262</v>
+      <c r="F68" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J68" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="N68" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>240</v>
       </c>
@@ -3531,23 +3946,23 @@
       <c r="E69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>262</v>
+      <c r="F69" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>258</v>
       </c>
@@ -3563,20 +3978,20 @@
       <c r="E70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>262</v>
+      <c r="F70" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J70" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>257</v>
       </c>
@@ -3592,20 +4007,20 @@
       <c r="E71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>262</v>
+      <c r="F71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J71" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>261</v>
       </c>
@@ -3624,20 +4039,17 @@
       <c r="F72" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>262</v>
+      <c r="G72" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J72" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>275</v>
       </c>
@@ -3653,20 +4065,20 @@
       <c r="E73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>262</v>
+      <c r="F73" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J73" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>276</v>
       </c>
@@ -3682,20 +4094,20 @@
       <c r="E74" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>262</v>
+      <c r="F74" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J74" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>277</v>
       </c>
@@ -3711,20 +4123,20 @@
       <c r="E75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>262</v>
+      <c r="F75" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J75" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>278</v>
       </c>
@@ -3740,35 +4152,35 @@
       <c r="E76" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>262</v>
+      <c r="F76" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="K76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="N76" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K78" s="6"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J78" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P76" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}"/>
+  <autoFilter ref="A1:O76" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1" xr:uid="{6F89064E-1AF0-40D6-9F7A-013C19036A8D}"/>
-    <hyperlink ref="H33" r:id="rId2" xr:uid="{6D5316C2-75A8-43D3-8673-975B13E163F3}"/>
-    <hyperlink ref="H34:H36" r:id="rId3" display="anand.perumallukamichetty@clarivate.com" xr:uid="{26AAD26D-35D4-4232-8D22-B391C245DF53}"/>
+    <hyperlink ref="G32" r:id="rId1" xr:uid="{6F89064E-1AF0-40D6-9F7A-013C19036A8D}"/>
+    <hyperlink ref="G33" r:id="rId2" xr:uid="{6D5316C2-75A8-43D3-8673-975B13E163F3}"/>
+    <hyperlink ref="G34:G36" r:id="rId3" display="anand.perumallukamichetty@clarivate.com" xr:uid="{26AAD26D-35D4-4232-8D22-B391C245DF53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5B125-7501-4DCF-BF5C-C2A64F8970E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF6F5B-3E63-4A1A-8FB5-A61CB1BC6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
     <sheet name="chemicalsearch" sheetId="80" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">chemicalsearch!$A$1:$O$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="288">
   <si>
     <t>TSID</t>
   </si>
@@ -850,501 +850,82 @@
     <t xml:space="preserve">CHEMEXP-1824 </t>
   </si>
   <si>
+    <t>Validate PDF links in the Patent Record View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate RS sort options </t>
+  </si>
+  <si>
+    <t>vaildateRsSortOptions</t>
+  </si>
+  <si>
+    <t>Validate chemical role filter</t>
+  </si>
+  <si>
+    <t>vaildateChemicalRoleFilterOptions</t>
+  </si>
+  <si>
+    <t>Validate search History functionality</t>
+  </si>
+  <si>
+    <t>validateSearchistoryFuntionality</t>
+  </si>
+  <si>
+    <t>azobisisobutyronitrile</t>
+  </si>
+  <si>
+    <t>initiator radical</t>
+  </si>
+  <si>
+    <t>azobis</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1982</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1983</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1984</t>
+  </si>
+  <si>
+    <t>CHEMEXP-1985</t>
+  </si>
+  <si>
+    <t>Filter inventor by text</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50</t>
+  </si>
+  <si>
+    <t>vaildatePDFFromRecordView</t>
+  </si>
+  <si>
+    <t>validateLiteratureCitations</t>
+  </si>
+  <si>
+    <t>Literature citations</t>
+  </si>
+  <si>
+    <t>CHEMEXP-2001</t>
+  </si>
+  <si>
+    <t>CHEMEXP-2002</t>
+  </si>
+  <si>
+    <t>validate - view as results set for Literature - Citing Literature and Cited Literature</t>
+  </si>
+  <si>
+    <t>validateLiteratureViewAsResultsSet</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>anand.perumallukamichetty@clarivate.com</t>
   </si>
   <si>
     <t>Derwent@2022</t>
-  </si>
-  <si>
-    <t>Validate PDF links in the Patent Record View</t>
-  </si>
-  <si>
-    <t>vaildatePDFPatentRecordView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate RS sort options </t>
-  </si>
-  <si>
-    <t>vaildateRsSortOptions</t>
-  </si>
-  <si>
-    <t>Validate chemical role filter</t>
-  </si>
-  <si>
-    <t>vaildateChemicalRoleFilterOptions</t>
-  </si>
-  <si>
-    <t>Validate search History functionality</t>
-  </si>
-  <si>
-    <t>validateSearchistoryFuntionality</t>
-  </si>
-  <si>
-    <t>azobisisobutyronitrile</t>
-  </si>
-  <si>
-    <t>initiator radical</t>
-  </si>
-  <si>
-    <t>azobis</t>
-  </si>
-  <si>
-    <t>CHEMEXP-1982</t>
-  </si>
-  <si>
-    <t>CHEMEXP-1983</t>
-  </si>
-  <si>
-    <t>CHEMEXP-1984</t>
-  </si>
-  <si>
-    <t>CHEMEXP-1985</t>
-  </si>
-  <si>
-    <t>Filter inventor by text</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50</t>
-  </si>
-  <si>
-    <t>Fail:clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1clickOn arrow next page is not workingjava.lang.ArrayIndexOutOfBoundsException: Index 1 out of bounds for length 1</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 80119777d5e70a66d5addb9fdd27c52c
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50370}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 80119777d5e70a66d5addb9fdd27c52c
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50513}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: bd323cc786d922bf37527c5c15ee1ef7
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50513}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: bd323cc786d922bf37527c5c15ee1ef7
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 776c649fbf883a2b95496c2dae5ccc89
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 776c649fbf883a2b95496c2dae5ccc89
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771bf5be (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 776c649fbf883a2b95496c2dae5ccc89waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@771bf5be (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50552}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 776c649fbf883a2b95496c2dae5ccc89</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50605}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: eed22139d62fc8690124be8839fbe95d
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50605}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: eed22139d62fc8690124be8839fbe95d
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50832}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c322e821464b224f712b69fa69a25363
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50832}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: c322e821464b224f712b69fa69a25363
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50880}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ee342e5d2f896494496694e0389b575e
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50880}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: ee342e5d2f896494496694e0389b575e
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50982}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a1d19cbcb34e7feadaf839307cb56d35
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50982}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: a1d19cbcb34e7feadaf839307cb56d35
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
-  (Session info: headless chrome=105.0.5195.102)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51099}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 09356784ebdc56212189374718ba0436clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
-  (Session info: headless chrome=105.0.5195.102)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51099}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 09356784ebdc56212189374718ba0436</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8d101861de5ca095e501e8dbd93288e8
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8d101861de5ca095e501e8dbd93288e8
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}EXPECTED AND ACTUAL PUBLICATION YEAR CHART LABEL NAMES ARE NOT MATCHINGclickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
-  (Session info: headless chrome=105.0.5195.102)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8d101861de5ca095e501e8dbd93288e8clickOnPYChartExpandCollapseIcon is not workingorg.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;span class="mat-expansion-indicator ng-tns-c144-140 ng-trigger ng-trigger-indicatorRotate ng-star-inserted" style="transform: rotate(180deg);"&gt;&lt;/span&gt; is not clickable at point (1900, 300). Other element would receive the click: &lt;svg width="360" height="160"&gt;...&lt;/svg&gt;
-  (Session info: headless chrome=105.0.5195.102)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51141}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 8d101861de5ca095e501e8dbd93288e8</t>
-  </si>
-  <si>
-    <t>Fail:selectManageFieldCheckBoxes is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51381}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e9aa76b79402524867cb30fe78878564
-*** Element info: {Using=xpath, value=//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']}selectManageFieldCheckBoxes is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51381}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e9aa76b79402524867cb30fe78878564
-*** Element info: {Using=xpath, value=//span[@class='mat-checkbox-label'][contains(text(),'Title')]//preceding-sibling::div//input[@type='checkbox']}</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 79ccef31ad7fe79d51f15495020a7b2c
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 79ccef31ad7fe79d51f15495020a7b2c
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //*/section[2]//div/section/section/section[2]/section/app-result-set[1]//section[2]/div/button' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1348baad (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 79ccef31ad7fe79d51f15495020a7b2cclickOnLinkMoreLikeThis is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //*/section[2]//div/section/section/section[2]/section/app-result-set[1]//section[2]/div/button' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1348baad (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51432}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 79ccef31ad7fe79d51f15495020a7b2c</t>
-  </si>
-  <si>
-    <t>Fail:clickOnLinkSavedRecords is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: button.cdx-but-md.cdx-but-link.mat-button.mat-button-base.mat-primary &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e60262d (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51606}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 08adf9b06aa7ceeb621517505b7b5120clickOnLinkSavedRecords is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: button.cdx-but-md.cdx-but-link.mat-button.mat-button-base.mat-primary &gt; span' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1e60262d (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51606}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 08adf9b06aa7ceeb621517505b7b5120</t>
-  </si>
-  <si>
-    <t>Fail:clickOnChemExpHomePage is not working no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='company-name']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 0359895063e1cd5574cbd629ca195f1d
-*** Element info: {Using=xpath, value=//a[@class='company-name']}clickOnChemExpHomePage is not working no such element: Unable to locate element: {"method":"xpath","selector":"//a[@class='company-name']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 0359895063e1cd5574cbd629ca195f1d
-*** Element info: {Using=xpath, value=//a[@class='company-name']}setTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@data-placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@25c89f52 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 0359895063e1cd5574cbd629ca195f1dsetTextSearchTextBox is not working..java.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //textarea[@data-placeholder='Enter keywords, phrases or text blocks to search...']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@25c89f52 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 0359895063e1cd5574cbd629ca195f1d</t>
-  </si>
-  <si>
-    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6d7ba177 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51950}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fd9ae4861283860298f66edd8e4d9f72clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6d7ba177 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:51950}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: fd9ae4861283860298f66edd8e4d9f72</t>
-  </si>
-  <si>
-    <t>Fail:clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@75338529 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52033}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 10b85311e8654598a13c5b3f96629df7clickOnRSFooterGlobalCheckBox is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //app-result-paginator-bar/section/section[1]/span[1]/mat-checkbox/label/div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@75338529 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52033}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 10b85311e8654598a13c5b3f96629df7</t>
-  </si>
-  <si>
-    <t>Fail:isDisabledLiteratureTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@title='Structure search not yet available for Literature']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6a8b24c3 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52150}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 245d3ea5a9ee6aff4c78f2904ccbc0ffisDisabledLiteratureTab is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@title='Structure search not yet available for Literature']' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@6a8b24c3 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52150}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 245d3ea5a9ee6aff4c78f2904ccbc0ff</t>
-  </si>
-  <si>
-    <t>Fail:clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@17f6f008 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52377}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e1df13b4d6c27405835756af2f45d334clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@17f6f008 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52377}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e1df13b4d6c27405835756af2f45d334</t>
-  </si>
-  <si>
-    <t>Fail:clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1de8a37 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52602}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: cc3ff2acc3871611498cc447ccb748c1clickOnSingleStructure is not workingjava.lang.Exception: waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //div[@class='mat-card-header-text']//mat-checkbox//label//div/input' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@1de8a37 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52602}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: cc3ff2acc3871611498cc447ccb748c1</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 51505d227be6e01fd6b7cc1e03a240fe
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 51505d227be6e01fd6b7cc1e03a240fe
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //h4[contains(.,'Edit existing cluster items')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@54a48703 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 51505d227be6e01fd6b7cc1e03a240fewaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.xpath: //h4[contains(.,'Edit existing cluster items')]' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@54a48703 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52714}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 51505d227be6e01fd6b7cc1e03a240fe</t>
-  </si>
-  <si>
-    <t>Fail:clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}clickOnTabLiterature is not workingno such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='tab-2']"}
-  (Session info: headless chrome=105.0.5195.102)
-For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:52777}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: 53ca6f19ce1c9a54cb5b9a3c2c30bdaf
-*** Element info: {Using=xpath, value=//*[@id='tab-2']}</t>
-  </si>
-  <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@29e52142 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53493}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e1024d7bba6d2ff67f077aded51ed04bwaitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@29e52142 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.102, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53493}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: e1024d7bba6d2ff67f077aded51ed04b</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Fail:waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@665224b4 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.127, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57875}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: faad4a59a4ae9c859bd1b3d80e33ae32waitUntilElementIsDisplayed is not working.. :: Proxy element for: DefaultElementLocator 'By.cssSelector: section.result-count &gt; div' org.openqa.selenium.TimeoutException: Expected condition failed: waiting for support.Controller$1@665224b4 (tried for 50 second(s) with 500 milliseconds interval)
-Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
-System info: host: 'BLR-5NJH5Y2-10L', ip: '192.168.1.15', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '11.0.7'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 105.0.5195.127, chrome: {chromedriverVersion: 105.0.5195.52 (412c95e51883..., userDataDir: C:\Users\U6052550\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:57875}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
-Session ID: faad4a59a4ae9c859bd1b3d80e33ae32</t>
   </si>
 </sst>
 </file>
@@ -1352,9 +933,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,16 +968,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1446,14 +1018,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1463,15 +1034,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{AA68FCC1-0F32-4B18-9A9A-444BEC9A472A}"/>
     <cellStyle name="Comma 2 2 2" xfId="5" xr:uid="{1A7BAE10-D655-46A3-884E-7A3BE33A8E6A}"/>
     <cellStyle name="Comma 2 3" xfId="4" xr:uid="{02E4C50F-082B-4B45-BB33-E0B251D59FE1}"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
@@ -1816,14 +1386,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1852,35 +1422,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="56.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="70.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="56.6640625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.21875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.44140625" style="5" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="40" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="203.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="132.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" style="5" collapsed="1"/>
+    <col min="11" max="11" width="203.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="132.109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.88671875" style="5" collapsed="1"/>
     <col min="14" max="14" width="28" style="5" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" style="5" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="5"/>
-    <col min="18" max="16384" width="8.85546875" style="5" collapsed="1"/>
+    <col min="15" max="15" width="27.44140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1495,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -1947,16 +1515,16 @@
         <v>175</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -1976,16 +1544,16 @@
         <v>175</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -2005,16 +1573,16 @@
         <v>175</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -2034,16 +1602,16 @@
         <v>175</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
@@ -2063,16 +1631,16 @@
         <v>175</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
@@ -2092,10 +1660,10 @@
         <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>31</v>
@@ -2104,7 +1672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -2124,10 +1692,10 @@
         <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>35</v>
@@ -2136,7 +1704,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>88</v>
       </c>
@@ -2156,10 +1724,10 @@
         <v>175</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>35</v>
@@ -2168,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>89</v>
       </c>
@@ -2188,16 +1756,16 @@
         <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>90</v>
       </c>
@@ -2217,10 +1785,10 @@
         <v>175</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>20</v>
@@ -2229,7 +1797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
@@ -2249,10 +1817,10 @@
         <v>175</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
@@ -2261,7 +1829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
@@ -2281,10 +1849,10 @@
         <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -2293,7 +1861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>94</v>
       </c>
@@ -2313,10 +1881,10 @@
         <v>175</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>20</v>
@@ -2325,7 +1893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>95</v>
       </c>
@@ -2345,10 +1913,10 @@
         <v>175</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>35</v>
@@ -2357,7 +1925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
@@ -2377,16 +1945,19 @@
         <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>97</v>
       </c>
@@ -2406,16 +1977,16 @@
         <v>175</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -2435,16 +2006,16 @@
         <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>99</v>
       </c>
@@ -2464,16 +2035,16 @@
         <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -2493,16 +2064,16 @@
         <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -2522,10 +2093,10 @@
         <v>175</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>20</v>
@@ -2537,7 +2108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
@@ -2557,16 +2128,16 @@
         <v>175</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -2583,19 +2154,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -2615,13 +2186,13 @@
         <v>175</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>108</v>
       </c>
@@ -2641,16 +2212,16 @@
         <v>175</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>109</v>
       </c>
@@ -2667,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>110</v>
       </c>
@@ -2699,10 +2270,10 @@
         <v>175</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>72</v>
@@ -2711,7 +2282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -2731,16 +2302,16 @@
         <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -2760,16 +2331,16 @@
         <v>175</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>118</v>
       </c>
@@ -2789,16 +2360,16 @@
         <v>175</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>121</v>
       </c>
@@ -2818,21 +2389,21 @@
         <v>175</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>14</v>
@@ -2846,133 +2417,133 @@
       <c r="F32" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>262</v>
+      <c r="G32" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>303</v>
+      <c r="E33" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>303</v>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>303</v>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>303</v>
+      <c r="E36" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>136</v>
       </c>
@@ -2991,17 +2562,17 @@
       <c r="F37" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
+      <c r="G37" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>139</v>
       </c>
@@ -3020,75 +2591,75 @@
       <c r="F38" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>262</v>
+      <c r="G38" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>303</v>
+      <c r="E39" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>303</v>
+      <c r="E40" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>148</v>
       </c>
@@ -3107,46 +2678,46 @@
       <c r="F41" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>262</v>
+      <c r="G41" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>303</v>
+      <c r="E42" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>166</v>
       </c>
@@ -3165,17 +2736,17 @@
       <c r="F43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>262</v>
+      <c r="G43" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>167</v>
       </c>
@@ -3192,48 +2763,48 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>303</v>
+      <c r="E45" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>169</v>
       </c>
@@ -3252,17 +2823,17 @@
       <c r="F46" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>262</v>
+      <c r="G46" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>170</v>
       </c>
@@ -3281,17 +2852,17 @@
       <c r="F47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>262</v>
+      <c r="G47" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>171</v>
       </c>
@@ -3310,17 +2881,17 @@
       <c r="F48" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>262</v>
+      <c r="G48" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>187</v>
       </c>
@@ -3337,48 +2908,48 @@
         <v>3</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>303</v>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>189</v>
       </c>
@@ -3397,17 +2968,17 @@
       <c r="F51" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>262</v>
+      <c r="G51" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>190</v>
       </c>
@@ -3426,17 +2997,17 @@
       <c r="F52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>262</v>
+      <c r="G52" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>206</v>
       </c>
@@ -3453,19 +3024,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>207</v>
       </c>
@@ -3482,19 +3053,19 @@
         <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>202</v>
       </c>
@@ -3513,17 +3084,17 @@
       <c r="F55" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>262</v>
+      <c r="G55" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>203</v>
       </c>
@@ -3540,19 +3111,19 @@
         <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>204</v>
       </c>
@@ -3569,19 +3140,19 @@
         <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>211</v>
       </c>
@@ -3598,19 +3169,19 @@
         <v>3</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>215</v>
       </c>
@@ -3629,11 +3200,11 @@
       <c r="F59" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>262</v>
+      <c r="G59" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>20</v>
@@ -3645,7 +3216,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>220</v>
       </c>
@@ -3664,11 +3235,11 @@
       <c r="F60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>262</v>
+      <c r="G60" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>223</v>
@@ -3677,7 +3248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>234</v>
       </c>
@@ -3694,13 +3265,13 @@
         <v>3</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>20</v>
@@ -3712,7 +3283,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>235</v>
       </c>
@@ -3731,11 +3302,11 @@
       <c r="F62" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>262</v>
+      <c r="G62" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>219</v>
@@ -3744,7 +3315,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>236</v>
       </c>
@@ -3763,11 +3334,11 @@
       <c r="F63" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>262</v>
+      <c r="G63" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>20</v>
@@ -3776,7 +3347,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>237</v>
       </c>
@@ -3793,13 +3364,13 @@
         <v>3</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>20</v>
@@ -3811,7 +3382,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>241</v>
       </c>
@@ -3830,46 +3401,46 @@
       <c r="F65" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>262</v>
+      <c r="G65" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>303</v>
+      <c r="E66" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>247</v>
       </c>
@@ -3886,19 +3457,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>250</v>
       </c>
@@ -3917,11 +3488,11 @@
       <c r="F68" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>262</v>
+      <c r="G68" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>23</v>
@@ -3930,7 +3501,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>240</v>
       </c>
@@ -3949,20 +3520,20 @@
       <c r="F69" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>262</v>
+      <c r="G69" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>114</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>258</v>
       </c>
@@ -3981,17 +3552,17 @@
       <c r="F70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>262</v>
+      <c r="G70" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>257</v>
       </c>
@@ -4010,17 +3581,17 @@
       <c r="F71" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>262</v>
+      <c r="G71" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>261</v>
       </c>
@@ -4039,28 +3610,28 @@
       <c r="F72" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>262</v>
+      <c r="G72" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>3</v>
@@ -4068,28 +3639,28 @@
       <c r="F73" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>262</v>
+      <c r="G73" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>3</v>
@@ -4097,92 +3668,143 @@
       <c r="F74" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>262</v>
+      <c r="G74" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="E76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="J78" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O76" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}"/>
+  <autoFilter ref="A1:O78" xr:uid="{AF3C60A3-C1CE-454B-9E25-9FD950A53520}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1" xr:uid="{6F89064E-1AF0-40D6-9F7A-013C19036A8D}"/>
-    <hyperlink ref="G33" r:id="rId2" xr:uid="{6D5316C2-75A8-43D3-8673-975B13E163F3}"/>
-    <hyperlink ref="G34:G36" r:id="rId3" display="anand.perumallukamichetty@clarivate.com" xr:uid="{26AAD26D-35D4-4232-8D22-B391C245DF53}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AF6F5B-3E63-4A1A-8FB5-A61CB1BC6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24801D04-0A8F-4A39-A39C-C227ED270D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="289">
   <si>
     <t>TSID</t>
   </si>
@@ -904,15 +904,6 @@
     <t>validateLiteratureCitations</t>
   </si>
   <si>
-    <t>Literature citations</t>
-  </si>
-  <si>
-    <t>CHEMEXP-2001</t>
-  </si>
-  <si>
-    <t>CHEMEXP-2002</t>
-  </si>
-  <si>
     <t>validate - view as results set for Literature - Citing Literature and Cited Literature</t>
   </si>
   <si>
@@ -926,6 +917,34 @@
   </si>
   <si>
     <t>Derwent@2022</t>
+  </si>
+  <si>
+    <t>Literature citations.</t>
+  </si>
+  <si>
+    <t>CHEMEXP-2167</t>
+  </si>
+  <si>
+    <t>CHEMEXP-2168</t>
+  </si>
+  <si>
+    <t>Fail:deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"#publ_year_rect_2010"}
+  (Session info: headless chrome=106.0.5249.119)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.100', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 106.0.5249.119, chrome: {chromedriverVersion: 106.0.5249.61 (511755355844..., userDataDir: C:\Users\U6070295\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53921}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 09b26f7de90ac8b0780d926519b09660
+*** Element info: {Using=css selector, value=#publ_year_rect_2010}deSelectMultiplePublicationChartFilters is not working..org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"#publ_year_rect_2010"}
+  (Session info: headless chrome=106.0.5249.119)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'CLVITN-FN78GG3', ip: '192.168.0.100', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18.0.1.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 106.0.5249.119, chrome: {chromedriverVersion: 106.0.5249.61 (511755355844..., userDataDir: C:\Users\U6070295\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:53921}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 09b26f7de90ac8b0780d926519b09660
+*** Element info: {Using=css selector, value=#publ_year_rect_2010}</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1444,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,10 +1534,10 @@
         <v>175</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>20</v>
@@ -1544,10 +1563,10 @@
         <v>175</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>17</v>
@@ -1573,10 +1592,10 @@
         <v>175</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>23</v>
@@ -1602,10 +1621,10 @@
         <v>175</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>205</v>
@@ -1631,10 +1650,10 @@
         <v>175</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>23</v>
@@ -1660,10 +1679,10 @@
         <v>175</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>31</v>
@@ -1692,10 +1711,10 @@
         <v>175</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>35</v>
@@ -1724,10 +1743,10 @@
         <v>175</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>35</v>
@@ -1756,10 +1775,10 @@
         <v>175</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
@@ -1785,10 +1804,10 @@
         <v>175</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>20</v>
@@ -1817,10 +1836,10 @@
         <v>175</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>20</v>
@@ -1849,10 +1868,10 @@
         <v>175</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -1881,10 +1900,10 @@
         <v>175</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>20</v>
@@ -1913,10 +1932,10 @@
         <v>175</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>35</v>
@@ -1945,16 +1964,16 @@
         <v>175</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>209</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1977,10 +1996,10 @@
         <v>175</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
@@ -2006,10 +2025,10 @@
         <v>175</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>67</v>
@@ -2035,10 +2054,10 @@
         <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>17</v>
@@ -2064,10 +2083,10 @@
         <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>23</v>
@@ -2093,10 +2112,10 @@
         <v>175</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>20</v>
@@ -2128,10 +2147,10 @@
         <v>175</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>114</v>
@@ -2157,10 +2176,10 @@
         <v>175</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>23</v>
@@ -2186,10 +2205,10 @@
         <v>175</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2212,10 +2231,10 @@
         <v>175</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>23</v>
@@ -2241,10 +2260,10 @@
         <v>175</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>23</v>
@@ -2270,10 +2289,10 @@
         <v>175</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>72</v>
@@ -2302,10 +2321,10 @@
         <v>175</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>114</v>
@@ -2331,10 +2350,10 @@
         <v>175</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>105</v>
@@ -2360,10 +2379,10 @@
         <v>175</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>105</v>
@@ -2389,10 +2408,10 @@
         <v>175</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>105</v>
@@ -2418,10 +2437,10 @@
         <v>175</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>105</v>
@@ -2447,10 +2466,10 @@
         <v>175</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>105</v>
@@ -2476,10 +2495,10 @@
         <v>175</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>105</v>
@@ -2505,10 +2524,10 @@
         <v>175</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>105</v>
@@ -2534,10 +2553,10 @@
         <v>175</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>105</v>
@@ -2563,10 +2582,10 @@
         <v>175</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>114</v>
@@ -2592,10 +2611,10 @@
         <v>175</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>114</v>
@@ -2621,10 +2640,10 @@
         <v>175</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>114</v>
@@ -2650,10 +2669,10 @@
         <v>175</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>114</v>
@@ -2679,10 +2698,10 @@
         <v>175</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>114</v>
@@ -2708,10 +2727,10 @@
         <v>175</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>114</v>
@@ -2737,10 +2756,10 @@
         <v>175</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>156</v>
@@ -2763,13 +2782,13 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>20</v>
@@ -2795,10 +2814,10 @@
         <v>175</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>20</v>
@@ -2824,10 +2843,10 @@
         <v>175</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>162</v>
@@ -2853,10 +2872,10 @@
         <v>175</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>164</v>
@@ -2882,10 +2901,10 @@
         <v>175</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>23</v>
@@ -2911,10 +2930,10 @@
         <v>175</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>179</v>
@@ -2940,10 +2959,10 @@
         <v>175</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>20</v>
@@ -2969,10 +2988,10 @@
         <v>175</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>102</v>
@@ -2998,10 +3017,10 @@
         <v>175</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>186</v>
@@ -3027,10 +3046,10 @@
         <v>175</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>102</v>
@@ -3056,10 +3075,10 @@
         <v>175</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>186</v>
@@ -3085,10 +3104,10 @@
         <v>175</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>20</v>
@@ -3114,10 +3133,10 @@
         <v>175</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>20</v>
@@ -3143,10 +3162,10 @@
         <v>175</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>23</v>
@@ -3172,10 +3191,10 @@
         <v>175</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>214</v>
@@ -3201,10 +3220,10 @@
         <v>175</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>20</v>
@@ -3236,10 +3255,10 @@
         <v>175</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>223</v>
@@ -3268,10 +3287,10 @@
         <v>175</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>20</v>
@@ -3303,10 +3322,10 @@
         <v>175</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>219</v>
@@ -3335,10 +3354,10 @@
         <v>175</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>20</v>
@@ -3367,10 +3386,10 @@
         <v>175</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>20</v>
@@ -3402,10 +3421,10 @@
         <v>175</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>20</v>
@@ -3431,10 +3450,10 @@
         <v>175</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>23</v>
@@ -3460,10 +3479,10 @@
         <v>175</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>20</v>
@@ -3489,10 +3508,10 @@
         <v>175</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>23</v>
@@ -3521,10 +3540,10 @@
         <v>175</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>114</v>
@@ -3553,10 +3572,10 @@
         <v>175</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>20</v>
@@ -3582,10 +3601,10 @@
         <v>175</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>20</v>
@@ -3611,10 +3630,10 @@
         <v>175</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>20</v>
@@ -3640,10 +3659,10 @@
         <v>175</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>23</v>
@@ -3669,10 +3688,10 @@
         <v>175</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>20</v>
@@ -3698,10 +3717,10 @@
         <v>175</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>271</v>
@@ -3727,10 +3746,10 @@
         <v>175</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>270</v>
@@ -3744,10 +3763,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>14</v>
@@ -3762,10 +3781,10 @@
         <v>175</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>23</v>
@@ -3773,16 +3792,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>3</v>
@@ -3791,10 +3810,10 @@
         <v>175</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>186</v>
